--- a/business/domain/domain-irnic-price-compare-list.xlsx
+++ b/business/domain/domain-irnic-price-compare-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\domain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Programming\talambar_cdn\business\domain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2938B938-62EF-4768-A3D6-AD55C17031E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B5CB5-9692-4301-B100-B1A74A8FF984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{656E8D54-B9ED-4B19-91BC-7A9F1ADCF6AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{656E8D54-B9ED-4B19-91BC-7A9F1ADCF6AA}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="273">
   <si>
     <t>#</t>
   </si>
@@ -758,6 +758,93 @@
   </si>
   <si>
     <t>قرارداد سال</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>سایت بالا می‌آید ولی تعرفه‌ای وجود ندارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی آی‌آر برای فروش نداشت</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات‌کام ۴۴ هزار تومان تخفیف دارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات‌کام ۶۰ هزار تومان تخفیف دارد</t>
+  </si>
+  <si>
+    <t>دامنه آی‌آر ۱ ساله قیمت اولیه ۱۵۶۰۰ تومان، ۵ ساله قیمت اولیه ۴۷۰۰۰ تومان، دامنه‌ی دات‌کام ۳۶۵۶۶۰ تومان</t>
+  </si>
+  <si>
+    <t>سایت بالا نمی‌آمد</t>
+  </si>
+  <si>
+    <t>صفحه‌ی اول سایت لاگ‌‌این بود ولی بعد از لاگ‌این بالا نمی‌آمد</t>
+  </si>
+  <si>
+    <t>فقط فروش دامنه‌ی آی آر و صفحه‌ی سایت تکراری می‌باشد</t>
+  </si>
+  <si>
+    <t>آخرین بروزرسانی ۱۶ فروردین ۱۴۰۱</t>
+  </si>
+  <si>
+    <t>آدرس آی‌پی تغییر کرده</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات‌کام برای فروش ندارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی آی‌آر ۵ ساله برای فروش وجود ندارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات‌کام برای فروش وجود ندارد و صفحه‌ی سایت تکراری می‌باشد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات‌کام برای فروش ندارد و سایت تکراری است</t>
+  </si>
+  <si>
+    <t>دامنه‌ی آی‌آر ۵ ساله و دات‌کام برای فروش وجود ندارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ي آی‌آر ۵ ساله برای فروش وجود ندارد</t>
+  </si>
+  <si>
+    <t>دامنه آی‌آر ۱ ساله ۳۱۰۰ تومان و دات‌کام 55000 تومان تخفیف دارد و دامنه آی‌آر ۵ ساله برای فروش ندارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات آی‌آر ۵ ساله و دات‌کام برای فروش ندارد</t>
+  </si>
+  <si>
+    <t>این نماینده در تاریخ ۱۴۰۱/۱/۱۴ فعالیتش به پایان رسید</t>
+  </si>
+  <si>
+    <t>دامنه دات کام ۱۰۰۰۰ تخفیف و دامنه دات آی‌آر ۵ ساله برای فروش ندارد</t>
+  </si>
+  <si>
+    <t>سرویس فروش دامنه قطع شده‌است</t>
+  </si>
+  <si>
+    <t>صفحه‌ی اول سایت لاگ‌‌این بود ولی بعد از لاگ‌این سایت بالا نمی‌آمد</t>
+  </si>
+  <si>
+    <t>دامنه‌ای برای فروش ندارد</t>
+  </si>
+  <si>
+    <t>سایتی با این نام وجود ندارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات آی‌آر ۵ ساله برای فروش ندارد</t>
+  </si>
+  <si>
+    <t>بروزرسانی سایت قدیمی است</t>
+  </si>
+  <si>
+    <t>دامنه دات آی‌آر ۱ ساله ۸۱۰۰، دات‌کام ۲۰۰۰۰ تومان تخفیف دارد و دامنه دات آی‌آر ۵ ساله برای فروش وجود ندارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات آی‌آر ۱ ساله ۹۰۰۰ تومان، دات آی‌آر ۵ ساله ۱۱۰۰۰ تومان، دات‌کام ۱۰۰۰۰ تومان تخفیف دارد</t>
   </si>
 </sst>
 </file>
@@ -766,7 +853,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -888,7 +975,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,7 +1017,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,8 +1027,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -985,7 +1078,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -1022,11 +1115,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1045,8 +1135,51 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Dana"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Dana"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1084,14 +1217,19 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Dana"/>
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1104,14 +1242,19 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Dana"/>
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1161,76 +1304,14 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Dana"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Dana"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Dana"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1251,11 +1332,23 @@
       </font>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FFFFFFFF"/>
-        </left>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Dana"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5973,18 +6066,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{548BE326-327C-454C-ACE6-EB8CB003DD8D}" name="Table1" displayName="Table1" ref="A1:J78" totalsRowShown="0" headerRowDxfId="12" dataDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{548BE326-327C-454C-ACE6-EB8CB003DD8D}" name="Table1" displayName="Table1" ref="A1:J78" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:J78" xr:uid="{548BE326-327C-454C-ACE6-EB8CB003DD8D}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{2A23BA31-9B49-4E05-BE22-9FA47E3CF962}" name="#" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{64709FED-287E-48BA-9FE1-08622E4296D3}" name="شناسه" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{2A23BA31-9B49-4E05-BE22-9FA47E3CF962}" name="#" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{64709FED-287E-48BA-9FE1-08622E4296D3}" name="شناسه" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{C0E08190-D533-4D2F-AFDC-2037946ED136}" name="نام" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{C2D57F2C-E391-415E-83DF-7489FFD9BBCC}" name="سامانه ثبت" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{8A8E354B-8721-44DE-AA34-4EEF648873E8}" name="وب" dataDxfId="6" dataCellStyle="Hyperlink"/>
-    <tableColumn id="10" xr3:uid="{68E090CB-E86E-4768-90BB-B4F444A7A9CD}" name="سایت فعال" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{FBE5E785-E23D-4F5F-97F2-B7ED1FDF9ABA}" name="دامنه IR یکساله" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{730C9C40-D5E6-4344-97C0-C69019B1DC08}" name="دامنه IR پنج‌ساله" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{BF2543EC-C8B4-4885-AFBB-1BBF36480F81}" name="دامنه دات‌کام" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{C2D57F2C-E391-415E-83DF-7489FFD9BBCC}" name="سامانه ثبت" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{8A8E354B-8721-44DE-AA34-4EEF648873E8}" name="وب" dataDxfId="8" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{68E090CB-E86E-4768-90BB-B4F444A7A9CD}" name="سایت فعال" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{FBE5E785-E23D-4F5F-97F2-B7ED1FDF9ABA}" name="دامنه IR یکساله" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{730C9C40-D5E6-4344-97C0-C69019B1DC08}" name="دامنه IR پنج‌ساله" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{BF2543EC-C8B4-4885-AFBB-1BBF36480F81}" name="دامنه دات‌کام" dataDxfId="4" dataCellStyle="Comma"/>
     <tableColumn id="11" xr3:uid="{E6EFF9A6-1E16-4749-A354-9F03F60AD56E}" name="توضیح" dataDxfId="3" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6300,10 +6393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B09669C-DC32-412C-96EB-9A29D963BFE0}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6317,11 +6410,13 @@
     <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="85.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="35" width="9.140625" style="1"/>
+    <col min="36" max="37" width="9.140625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -6370,11 +6465,21 @@
       <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="19"/>
+      <c r="F2" s="18">
+        <v>5</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
@@ -6390,11 +6495,21 @@
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="19"/>
+      <c r="F3" s="18">
+        <v>10</v>
+      </c>
+      <c r="G3" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H3" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
@@ -6408,11 +6523,21 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="19"/>
+      <c r="F4" s="18">
+        <v>10</v>
+      </c>
+      <c r="G4" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H4" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
@@ -6428,11 +6553,21 @@
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="19"/>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
@@ -6448,11 +6583,21 @@
       <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="19"/>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
@@ -6468,11 +6613,21 @@
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="19"/>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
@@ -6488,11 +6643,21 @@
       <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="19"/>
+      <c r="F8" s="18">
+        <v>10</v>
+      </c>
+      <c r="G8" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
@@ -6508,11 +6673,21 @@
       <c r="E9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="19"/>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
@@ -6528,11 +6703,21 @@
       <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="19"/>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
@@ -6548,11 +6733,21 @@
       <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="19"/>
+      <c r="F11" s="18">
+        <v>10</v>
+      </c>
+      <c r="G11" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="15">
+        <v>285000</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
@@ -6568,11 +6763,21 @@
       <c r="E12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="19"/>
+      <c r="F12" s="18">
+        <v>10</v>
+      </c>
+      <c r="G12" s="15">
+        <v>12900</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I12" s="15">
+        <v>315000</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
@@ -6588,11 +6793,21 @@
       <c r="E13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="19"/>
+      <c r="F13" s="18">
+        <v>10</v>
+      </c>
+      <c r="G13" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H13" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
@@ -6608,11 +6823,21 @@
       <c r="E14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="19"/>
+      <c r="F14" s="18">
+        <v>10</v>
+      </c>
+      <c r="G14" s="15">
+        <v>13900</v>
+      </c>
+      <c r="H14" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I14" s="15">
+        <v>338000</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
@@ -6628,11 +6853,21 @@
       <c r="E15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="19"/>
+      <c r="F15" s="18">
+        <v>10</v>
+      </c>
+      <c r="G15" s="15">
+        <v>12000</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
@@ -6648,11 +6883,21 @@
       <c r="E16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="19"/>
+      <c r="F16" s="18">
+        <v>10</v>
+      </c>
+      <c r="G16" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="15">
+        <v>395000</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
@@ -6668,11 +6913,21 @@
       <c r="E17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="19"/>
+      <c r="F17" s="18">
+        <v>10</v>
+      </c>
+      <c r="G17" s="15">
+        <v>37000</v>
+      </c>
+      <c r="H17" s="15">
+        <v>112000</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
@@ -6688,11 +6943,21 @@
       <c r="E18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="19"/>
+      <c r="F18" s="18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="15">
+        <v>19000</v>
+      </c>
+      <c r="H18" s="15">
+        <v>57000</v>
+      </c>
+      <c r="I18" s="15">
+        <v>348000</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
@@ -6708,11 +6973,21 @@
       <c r="E19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="19"/>
+      <c r="F19" s="18">
+        <v>10</v>
+      </c>
+      <c r="G19" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H19" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I19" s="15">
+        <v>365000</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
@@ -6728,11 +7003,21 @@
       <c r="E20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="19"/>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
@@ -6748,11 +7033,21 @@
       <c r="E21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="19"/>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
@@ -6768,11 +7063,21 @@
       <c r="E22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="19"/>
+      <c r="F22" s="18">
+        <v>5</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
@@ -6788,11 +7093,21 @@
       <c r="E23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="19"/>
+      <c r="F23" s="18">
+        <v>10</v>
+      </c>
+      <c r="G23" s="15">
+        <v>16900</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I23" s="15">
+        <v>279000</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
@@ -6808,11 +7123,21 @@
       <c r="E24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="19"/>
+      <c r="F24" s="18">
+        <v>10</v>
+      </c>
+      <c r="G24" s="15">
+        <v>14940</v>
+      </c>
+      <c r="H24" s="15">
+        <v>45750</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
@@ -6828,11 +7153,21 @@
       <c r="E25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="19"/>
+      <c r="F25" s="18">
+        <v>10</v>
+      </c>
+      <c r="G25" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I25" s="15">
+        <v>298000</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
@@ -6848,11 +7183,21 @@
       <c r="E26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="19"/>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
@@ -6868,11 +7213,21 @@
       <c r="E27" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="19"/>
+      <c r="F27" s="18">
+        <v>10</v>
+      </c>
+      <c r="G27" s="15">
+        <v>12000</v>
+      </c>
+      <c r="H27" s="15">
+        <v>45000</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
@@ -6888,11 +7243,21 @@
       <c r="E28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="19"/>
+      <c r="F28" s="18">
+        <v>10</v>
+      </c>
+      <c r="G28" s="15">
+        <v>15000</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I28" s="15">
+        <v>279000</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
@@ -6908,11 +7273,21 @@
       <c r="E29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="19"/>
+      <c r="F29" s="18">
+        <v>5</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
@@ -6928,11 +7303,21 @@
       <c r="E30" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="19"/>
+      <c r="F30" s="18">
+        <v>10</v>
+      </c>
+      <c r="G30" s="15">
+        <v>14900</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I30" s="15">
+        <v>295000</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
@@ -6948,11 +7333,21 @@
       <c r="E31" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="19"/>
+      <c r="F31" s="18">
+        <v>10</v>
+      </c>
+      <c r="G31" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I31" s="15">
+        <v>310000</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
@@ -6968,11 +7363,21 @@
       <c r="E32" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="19"/>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
@@ -6988,11 +7393,21 @@
       <c r="E33" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="19"/>
+      <c r="F33" s="18">
+        <v>5</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
@@ -7008,11 +7423,21 @@
       <c r="E34" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="19"/>
+      <c r="F34" s="18">
+        <v>5</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
@@ -7028,11 +7453,21 @@
       <c r="E35" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="19"/>
+      <c r="F35" s="18">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
@@ -7060,7 +7495,9 @@
       <c r="I36" s="15">
         <v>318000</v>
       </c>
-      <c r="J36" s="19"/>
+      <c r="J36" s="19" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
@@ -7074,11 +7511,21 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="19"/>
+      <c r="F37" s="18">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
@@ -7094,11 +7541,21 @@
       <c r="E38" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="19"/>
+      <c r="F38" s="18">
+        <v>10</v>
+      </c>
+      <c r="G38" s="15">
+        <v>14000</v>
+      </c>
+      <c r="H38" s="15">
+        <v>42000</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
@@ -7114,11 +7571,21 @@
       <c r="E39" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="19"/>
+      <c r="F39" s="18">
+        <v>5</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
@@ -7134,11 +7601,21 @@
       <c r="E40" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="19"/>
+      <c r="F40" s="18">
+        <v>10</v>
+      </c>
+      <c r="G40" s="15">
+        <v>24000</v>
+      </c>
+      <c r="H40" s="15">
+        <v>60000</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
@@ -7154,11 +7631,21 @@
       <c r="E41" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="19"/>
+      <c r="F41" s="18">
+        <v>10</v>
+      </c>
+      <c r="G41" s="15">
+        <v>15000</v>
+      </c>
+      <c r="H41" s="15">
+        <v>40000</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
@@ -7174,11 +7661,21 @@
       <c r="E42" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="19"/>
+      <c r="F42" s="18">
+        <v>10</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
@@ -7194,11 +7691,21 @@
       <c r="E43" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="19"/>
+      <c r="F43" s="18">
+        <v>10</v>
+      </c>
+      <c r="G43" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I43" s="15">
+        <v>380000</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
@@ -7214,11 +7721,21 @@
       <c r="E44" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="19"/>
+      <c r="F44" s="18">
+        <v>10</v>
+      </c>
+      <c r="G44" s="15">
+        <v>12000</v>
+      </c>
+      <c r="H44" s="15">
+        <v>36000</v>
+      </c>
+      <c r="I44" s="15">
+        <v>316008</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
@@ -7234,11 +7751,21 @@
       <c r="E45" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="19"/>
+      <c r="F45" s="18">
+        <v>10</v>
+      </c>
+      <c r="G45" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H45" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
@@ -7254,11 +7781,21 @@
       <c r="E46" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="19"/>
+      <c r="F46" s="18">
+        <v>0</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="12">
@@ -7274,11 +7811,21 @@
       <c r="E47" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="19"/>
+      <c r="F47" s="18">
+        <v>5</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12">
@@ -7294,11 +7841,21 @@
       <c r="E48" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="19"/>
+      <c r="F48" s="18">
+        <v>10</v>
+      </c>
+      <c r="G48" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H48" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="12">
@@ -7314,11 +7871,21 @@
       <c r="E49" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="19"/>
+      <c r="F49" s="18">
+        <v>10</v>
+      </c>
+      <c r="G49" s="15">
+        <v>25000</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I49" s="15">
+        <v>299000</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="12">
@@ -7334,11 +7901,21 @@
       <c r="E50" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="19"/>
+      <c r="F50" s="18">
+        <v>10</v>
+      </c>
+      <c r="G50" s="15">
+        <v>14000</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I50" s="15">
+        <v>319000</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="12">
@@ -7354,11 +7931,21 @@
       <c r="E51" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="19"/>
+      <c r="F51" s="18">
+        <v>10</v>
+      </c>
+      <c r="G51" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I51" s="15">
+        <v>421200</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="12">
@@ -7374,11 +7961,21 @@
       <c r="E52" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="19"/>
+      <c r="F52" s="18">
+        <v>5</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="12">
@@ -7394,11 +7991,21 @@
       <c r="E53" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="19"/>
+      <c r="F53" s="18">
+        <v>10</v>
+      </c>
+      <c r="G53" s="15">
+        <v>15000</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I53" s="15">
+        <v>299000</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="12">
@@ -7414,11 +8021,21 @@
       <c r="E54" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="19"/>
+      <c r="F54" s="18">
+        <v>10</v>
+      </c>
+      <c r="G54" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H54" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="12">
@@ -7434,11 +8051,21 @@
       <c r="E55" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="19"/>
+      <c r="F55" s="18">
+        <v>10</v>
+      </c>
+      <c r="G55" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H55" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J55" s="19" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="12">
@@ -7454,11 +8081,21 @@
       <c r="E56" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="19"/>
+      <c r="F56" s="18">
+        <v>10</v>
+      </c>
+      <c r="G56" s="15">
+        <v>26000</v>
+      </c>
+      <c r="H56" s="15">
+        <v>95000</v>
+      </c>
+      <c r="I56" s="15">
+        <v>395000</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="57" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="12">
@@ -7474,11 +8111,21 @@
       <c r="E57" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="19"/>
+      <c r="F57" s="18">
+        <v>10</v>
+      </c>
+      <c r="G57" s="15">
+        <v>12000</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I57" s="15">
+        <v>291000</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="58" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="12">
@@ -7494,11 +8141,21 @@
       <c r="E58" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="19"/>
+      <c r="F58" s="18">
+        <v>10</v>
+      </c>
+      <c r="G58" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I58" s="15">
+        <v>362000</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12">
@@ -7514,11 +8171,21 @@
       <c r="E59" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="19"/>
+      <c r="F59" s="18">
+        <v>10</v>
+      </c>
+      <c r="G59" s="15">
+        <v>25000</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I59" s="15">
+        <v>390000</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="60" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12">
@@ -7531,14 +8198,24 @@
         <v>178</v>
       </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="F60" s="18"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="19"/>
+      <c r="F60" s="18">
+        <v>10</v>
+      </c>
+      <c r="G60" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I60" s="15">
+        <v>340380</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="12">
@@ -7554,11 +8231,21 @@
       <c r="E61" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="19"/>
+      <c r="F61" s="18">
+        <v>10</v>
+      </c>
+      <c r="G61" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H61" s="15">
+        <v>36000</v>
+      </c>
+      <c r="I61" s="15">
+        <v>339000</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="12">
@@ -7574,11 +8261,21 @@
       <c r="E62" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F62" s="18"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="19"/>
+      <c r="F62" s="18">
+        <v>10</v>
+      </c>
+      <c r="G62" s="15">
+        <v>15800</v>
+      </c>
+      <c r="H62" s="15">
+        <v>47400</v>
+      </c>
+      <c r="I62" s="15">
+        <v>285700</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="63" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="12">
@@ -7594,11 +8291,21 @@
       <c r="E63" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="19"/>
+      <c r="F63" s="18">
+        <v>10</v>
+      </c>
+      <c r="G63" s="15">
+        <v>14000</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I63" s="15">
+        <v>319000</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="64" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="12">
@@ -7614,11 +8321,21 @@
       <c r="E64" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F64" s="18"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="19"/>
+      <c r="F64" s="18">
+        <v>0</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="12">
@@ -7634,11 +8351,21 @@
       <c r="E65" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F65" s="18"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="19"/>
+      <c r="F65" s="18">
+        <v>10</v>
+      </c>
+      <c r="G65" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H65" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J65" s="19" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="66" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="12">
@@ -7654,11 +8381,21 @@
       <c r="E66" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="19"/>
+      <c r="F66" s="18">
+        <v>5</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="12">
@@ -7671,14 +8408,24 @@
         <v>199</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="19"/>
+      <c r="F67" s="18">
+        <v>0</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="68" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="12">
@@ -7694,11 +8441,21 @@
       <c r="E68" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="18"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="19"/>
+      <c r="F68" s="18">
+        <v>0</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="69" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="12">
@@ -7714,11 +8471,21 @@
       <c r="E69" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="19"/>
+      <c r="F69" s="18">
+        <v>10</v>
+      </c>
+      <c r="G69" s="15">
+        <v>13200</v>
+      </c>
+      <c r="H69" s="15">
+        <v>39600</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="70" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="12">
@@ -7734,11 +8501,21 @@
       <c r="E70" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="19"/>
+      <c r="F70" s="18">
+        <v>10</v>
+      </c>
+      <c r="G70" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I70" s="15">
+        <v>255000</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="12">
@@ -7754,11 +8531,21 @@
       <c r="E71" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F71" s="18"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="19"/>
+      <c r="F71" s="18">
+        <v>10</v>
+      </c>
+      <c r="G71" s="15">
+        <v>15000</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I71" s="15">
+        <v>333000</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="12">
@@ -7774,11 +8561,21 @@
       <c r="E72" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F72" s="18"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="19"/>
+      <c r="F72" s="18">
+        <v>10</v>
+      </c>
+      <c r="G72" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I72" s="15">
+        <v>348000</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="12">
@@ -7794,11 +8591,21 @@
       <c r="E73" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F73" s="18"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="19"/>
+      <c r="F73" s="18">
+        <v>10</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I73" s="15">
+        <v>400000</v>
+      </c>
+      <c r="J73" s="19" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="74" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="12">
@@ -7814,11 +8621,21 @@
       <c r="E74" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="18"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="19"/>
+      <c r="F74" s="18">
+        <v>10</v>
+      </c>
+      <c r="G74" s="15">
+        <v>12000</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I74" s="15">
+        <v>335000</v>
+      </c>
+      <c r="J74" s="19" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="75" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="12">
@@ -7834,11 +8651,21 @@
       <c r="E75" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F75" s="18"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="19"/>
+      <c r="F75" s="18">
+        <v>10</v>
+      </c>
+      <c r="G75" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H75" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="76" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="12">
@@ -7854,11 +8681,21 @@
       <c r="E76" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F76" s="18"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="19"/>
+      <c r="F76" s="18">
+        <v>10</v>
+      </c>
+      <c r="G76" s="15">
+        <v>15000</v>
+      </c>
+      <c r="H76" s="15">
+        <v>45000</v>
+      </c>
+      <c r="I76" s="15">
+        <v>365000</v>
+      </c>
+      <c r="J76" s="19" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="77" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="12">
@@ -7874,11 +8711,21 @@
       <c r="E77" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="18"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="19"/>
+      <c r="F77" s="18">
+        <v>5</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="78" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="4">
@@ -7894,15 +8741,37 @@
       <c r="E78" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="18"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="19"/>
+      <c r="F78" s="18">
+        <v>10</v>
+      </c>
+      <c r="G78" s="15">
+        <v>16500</v>
+      </c>
+      <c r="H78" s="15">
+        <v>44000</v>
+      </c>
+      <c r="I78" s="15">
+        <v>268000</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="3"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G78">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="G41:G78">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7915,7 +8784,50 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H78">
+  <conditionalFormatting sqref="H41:H78">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I78">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:F78">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G40">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5AC794AF-717B-4AEB-B2CA-DE7C19A0AD48}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H40">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -7925,7 +8837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I78">
+  <conditionalFormatting sqref="I2:I40">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7935,7 +8847,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F78">
+  <conditionalFormatting sqref="F2:F40">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -8001,14 +8913,14 @@
     <hyperlink ref="E57" r:id="rId54" display="http://parspack.ir/" xr:uid="{4E7E63F9-14B6-4C27-AB71-C7157F0D4655}"/>
     <hyperlink ref="E58" r:id="rId55" display="http://www.bertina.ir/" xr:uid="{A8317657-D204-49D8-AAC1-469C2B67812C}"/>
     <hyperlink ref="E59" r:id="rId56" display="http://persiantools.ir/" xr:uid="{49CFCF96-03A7-4BD9-A758-DCF284E5099C}"/>
-    <hyperlink ref="E60" r:id="rId57" display="http://www.host2host.ir/" xr:uid="{9418F2A7-642D-4D3D-BF56-C8FD117E5D5E}"/>
+    <hyperlink ref="E60" r:id="rId57" xr:uid="{9418F2A7-642D-4D3D-BF56-C8FD117E5D5E}"/>
     <hyperlink ref="E61" r:id="rId58" display="http://pouyasazan.ir/" xr:uid="{65949951-4302-4DA0-ACE7-C7E187F9A68A}"/>
     <hyperlink ref="E62" r:id="rId59" display="http://talahost.ir/" xr:uid="{EB48832B-02C4-4B9C-921D-EE3D1396F1A0}"/>
     <hyperlink ref="E63" r:id="rId60" display="http://raadcom.ir/" xr:uid="{6FB2E297-DE78-40AE-903A-4A0FE27F4D5C}"/>
     <hyperlink ref="E64" r:id="rId61" display="http://domains.ir/" xr:uid="{44DB414F-EBDB-4FBB-931A-5E483BCE6EDD}"/>
     <hyperlink ref="E65" r:id="rId62" display="http://www.reseller24.ir/" xr:uid="{FE666B60-C95A-4DCF-9009-12BCC613E0C8}"/>
     <hyperlink ref="E66" r:id="rId63" display="http://domaino.ir/" xr:uid="{69CDFED6-ED1E-485A-BB87-41195BB19888}"/>
-    <hyperlink ref="E67" r:id="rId64" display="http://www.iranregister.ir/" xr:uid="{2871766B-EA96-4074-8900-AA99294A6077}"/>
+    <hyperlink ref="E67" r:id="rId64" xr:uid="{2871766B-EA96-4074-8900-AA99294A6077}"/>
     <hyperlink ref="E68" r:id="rId65" display="http://listip.ir/" xr:uid="{B5E630B1-5B2E-4967-9E75-8CA5A78B4A05}"/>
     <hyperlink ref="E69" r:id="rId66" display="http://domain123.ir/" xr:uid="{EAFF5C2A-5567-4AAA-80FA-B7ABEDE8D0B5}"/>
     <hyperlink ref="E70" r:id="rId67" display="http://sindad.co.ir/" xr:uid="{1D4D80E0-6D27-4D6D-A17D-A20E459C3EEB}"/>
@@ -8041,7 +8953,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G78</xm:sqref>
+          <xm:sqref>G41:G78</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5AC794AF-717B-4AEB-B2CA-DE7C19A0AD48}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:G40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8054,7 +8979,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/business/domain/domain-irnic-price-compare-list.xlsx
+++ b/business/domain/domain-irnic-price-compare-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Programming\talambar_cdn\business\domain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\domain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B5CB5-9692-4301-B100-B1A74A8FF984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E44483F-4709-4D0E-8A7D-0B5307B661BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{656E8D54-B9ED-4B19-91BC-7A9F1ADCF6AA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{656E8D54-B9ED-4B19-91BC-7A9F1ADCF6AA}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -904,12 +904,18 @@
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -975,7 +981,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,6 +1042,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1078,7 +1114,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -1369,13 +1405,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1430,13 +1466,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1491,13 +1527,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1552,13 +1588,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1613,13 +1649,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1674,13 +1710,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1735,13 +1771,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1796,13 +1832,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1857,13 +1893,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1918,13 +1954,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1979,13 +2015,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2162,13 +2198,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2223,13 +2259,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2284,13 +2320,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2345,13 +2381,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2406,13 +2442,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2467,13 +2503,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2528,13 +2564,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2589,13 +2625,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2650,13 +2686,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2711,13 +2747,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2772,13 +2808,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2833,13 +2869,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2894,13 +2930,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2955,13 +2991,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3016,13 +3052,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3077,13 +3113,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3138,13 +3174,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3199,13 +3235,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3260,13 +3296,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3321,13 +3357,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3382,13 +3418,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3443,13 +3479,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3504,13 +3540,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3565,13 +3601,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3626,13 +3662,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3687,13 +3723,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3748,13 +3784,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3809,13 +3845,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3870,13 +3906,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3931,13 +3967,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3992,13 +4028,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4053,13 +4089,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4114,13 +4150,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4175,13 +4211,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4236,13 +4272,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4297,13 +4333,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4358,13 +4394,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4419,13 +4455,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4480,13 +4516,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4541,13 +4577,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4602,13 +4638,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4663,13 +4699,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4724,13 +4760,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4785,13 +4821,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4846,13 +4882,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4907,13 +4943,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4968,13 +5004,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5029,13 +5065,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5090,13 +5126,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5151,13 +5187,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5212,13 +5248,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5273,13 +5309,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5334,13 +5370,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5395,13 +5431,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5456,13 +5492,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5517,13 +5553,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5578,13 +5614,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5639,13 +5675,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5700,13 +5736,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5761,13 +5797,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5822,13 +5858,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5883,13 +5919,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5944,13 +5980,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6005,13 +6041,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6068,6 +6104,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{548BE326-327C-454C-ACE6-EB8CB003DD8D}" name="Table1" displayName="Table1" ref="A1:J78" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:J78" xr:uid="{548BE326-327C-454C-ACE6-EB8CB003DD8D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J78">
+    <sortCondition ref="H1:H78"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{2A23BA31-9B49-4E05-BE22-9FA47E3CF962}" name="#" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{64709FED-287E-48BA-9FE1-08622E4296D3}" name="شناسه" dataDxfId="11"/>
@@ -6395,21 +6434,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B09669C-DC32-412C-96EB-9A29D963BFE0}">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="85.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -6453,47 +6492,47 @@
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="7" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="F2" s="18">
-        <v>5</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="15">
+        <v>12000</v>
+      </c>
+      <c r="H2" s="15">
+        <v>36000</v>
+      </c>
+      <c r="I2" s="15">
+        <v>316008</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="7" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="F3" s="18">
         <v>10</v>
@@ -6502,281 +6541,283 @@
         <v>16000</v>
       </c>
       <c r="H3" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>244</v>
+        <v>36000</v>
+      </c>
+      <c r="I3" s="15">
+        <v>339000</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="F4" s="18">
         <v>10</v>
       </c>
       <c r="G4" s="15">
-        <v>16000</v>
+        <v>13200</v>
       </c>
       <c r="H4" s="15">
-        <v>48000</v>
+        <v>39600</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="15">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="15">
+        <v>40000</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>250</v>
+      <c r="A6" s="24">
+        <v>35</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="29">
+        <v>10</v>
+      </c>
+      <c r="G6" s="30">
+        <v>12000</v>
+      </c>
+      <c r="H6" s="30">
+        <v>42000</v>
+      </c>
+      <c r="I6" s="30">
+        <v>318000</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="15">
+        <v>14000</v>
+      </c>
+      <c r="H7" s="15">
+        <v>42000</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="F8" s="18">
         <v>10</v>
       </c>
       <c r="G8" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>244</v>
+        <v>16500</v>
+      </c>
+      <c r="H8" s="15">
+        <v>44000</v>
+      </c>
+      <c r="I8" s="15">
+        <v>268000</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="7" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="F9" s="18">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="15">
+        <v>15000</v>
+      </c>
+      <c r="H9" s="15">
+        <v>45000</v>
+      </c>
+      <c r="I9" s="15">
+        <v>365000</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="15">
+        <v>12000</v>
+      </c>
+      <c r="H10" s="15">
+        <v>45000</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F11" s="18">
         <v>10</v>
       </c>
       <c r="G11" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I11" s="15">
-        <v>285000</v>
+        <v>14940</v>
+      </c>
+      <c r="H11" s="15">
+        <v>45750</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="F12" s="18">
         <v>10</v>
       </c>
       <c r="G12" s="15">
-        <v>12900</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>244</v>
+        <v>15800</v>
+      </c>
+      <c r="H12" s="15">
+        <v>47400</v>
       </c>
       <c r="I12" s="15">
-        <v>315000</v>
+        <v>285700</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -6841,47 +6882,47 @@
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F15" s="18">
         <v>10</v>
       </c>
       <c r="G15" s="15">
-        <v>12000</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>244</v>
+        <v>16000</v>
+      </c>
+      <c r="H15" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I15" s="15">
+        <v>365000</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="7" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F16" s="18">
         <v>10</v>
@@ -6889,89 +6930,87 @@
       <c r="G16" s="15">
         <v>16000</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I16" s="15">
-        <v>395000</v>
+      <c r="H16" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="E17" s="8"/>
       <c r="F17" s="18">
         <v>10</v>
       </c>
       <c r="G17" s="15">
-        <v>37000</v>
+        <v>16000</v>
       </c>
       <c r="H17" s="15">
-        <v>112000</v>
+        <v>48000</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="F18" s="18">
         <v>10</v>
       </c>
       <c r="G18" s="15">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="H18" s="15">
-        <v>57000</v>
-      </c>
-      <c r="I18" s="15">
-        <v>348000</v>
+        <v>48000</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="7" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="F19" s="18">
         <v>10</v>
@@ -6982,245 +7021,245 @@
       <c r="H19" s="15">
         <v>48000</v>
       </c>
-      <c r="I19" s="15">
-        <v>365000</v>
+      <c r="I19" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="7" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H20" s="15">
+        <v>48000</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="F21" s="18">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H21" s="15">
+        <v>48000</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="F22" s="18">
-        <v>5</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H22" s="15">
+        <v>48000</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="F23" s="18">
         <v>10</v>
       </c>
       <c r="G23" s="15">
-        <v>16900</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I23" s="15">
-        <v>279000</v>
+        <v>16000</v>
+      </c>
+      <c r="H23" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F24" s="18">
         <v>10</v>
       </c>
       <c r="G24" s="15">
-        <v>14940</v>
+        <v>19000</v>
       </c>
       <c r="H24" s="15">
-        <v>45750</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>244</v>
+        <v>57000</v>
+      </c>
+      <c r="I24" s="15">
+        <v>348000</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="F25" s="18">
         <v>10</v>
       </c>
       <c r="G25" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I25" s="15">
-        <v>298000</v>
+        <v>24000</v>
+      </c>
+      <c r="H25" s="15">
+        <v>60000</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="7" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="F26" s="18">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="15">
+        <v>26000</v>
+      </c>
+      <c r="H26" s="15">
+        <v>95000</v>
+      </c>
+      <c r="I26" s="15">
+        <v>395000</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="7" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F27" s="18">
         <v>10</v>
       </c>
       <c r="G27" s="15">
-        <v>12000</v>
+        <v>37000</v>
       </c>
       <c r="H27" s="15">
-        <v>45000</v>
+        <v>112000</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>244</v>
@@ -7231,107 +7270,107 @@
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="7" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="F28" s="18">
         <v>10</v>
       </c>
       <c r="G28" s="15">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I28" s="15">
-        <v>279000</v>
+        <v>255000</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F29" s="18">
-        <v>5</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="15">
+        <v>15000</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I29" s="15" t="s">
-        <v>244</v>
+      <c r="I29" s="15">
+        <v>279000</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F30" s="18">
         <v>10</v>
       </c>
       <c r="G30" s="15">
-        <v>14900</v>
+        <v>16900</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I30" s="15">
-        <v>295000</v>
+        <v>279000</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="7" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F31" s="18">
         <v>10</v>
@@ -7343,7 +7382,7 @@
         <v>244</v>
       </c>
       <c r="I31" s="15">
-        <v>310000</v>
+        <v>285000</v>
       </c>
       <c r="J31" s="19" t="s">
         <v>260</v>
@@ -7351,285 +7390,287 @@
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="7" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="F32" s="18">
-        <v>0</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="15">
+        <v>12000</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I32" s="15" t="s">
-        <v>244</v>
+      <c r="I32" s="15">
+        <v>291000</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F33" s="18">
-        <v>5</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="15">
+        <v>14900</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I33" s="15" t="s">
-        <v>244</v>
+      <c r="I33" s="15">
+        <v>295000</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="7" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F34" s="18">
-        <v>5</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="15">
+        <v>16000</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I34" s="15" t="s">
-        <v>244</v>
+      <c r="I34" s="15">
+        <v>298000</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="7" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="F35" s="18">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="15">
+        <v>15000</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I35" s="15" t="s">
-        <v>244</v>
+      <c r="I35" s="15">
+        <v>299000</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="7" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="F36" s="18">
         <v>10</v>
       </c>
       <c r="G36" s="15">
-        <v>12000</v>
-      </c>
-      <c r="H36" s="15">
-        <v>42000</v>
+        <v>25000</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I36" s="15">
-        <v>318000</v>
+        <v>299000</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="F37" s="18">
-        <v>0</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="15">
+        <v>16000</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I37" s="15" t="s">
-        <v>244</v>
+      <c r="I37" s="15">
+        <v>310000</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="7" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
         <v>10</v>
       </c>
       <c r="G38" s="15">
-        <v>14000</v>
-      </c>
-      <c r="H38" s="15">
-        <v>42000</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>244</v>
+        <v>12900</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I38" s="15">
+        <v>315000</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="7" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="F39" s="18">
-        <v>5</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="15">
+        <v>14000</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I39" s="15" t="s">
-        <v>244</v>
+      <c r="I39" s="15">
+        <v>319000</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="7" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="F40" s="18">
         <v>10</v>
       </c>
       <c r="G40" s="15">
-        <v>24000</v>
-      </c>
-      <c r="H40" s="15">
-        <v>60000</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>244</v>
+        <v>14000</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I40" s="15">
+        <v>319000</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="7" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="F41" s="18">
         <v>10</v>
@@ -7637,59 +7678,59 @@
       <c r="G41" s="15">
         <v>15000</v>
       </c>
-      <c r="H41" s="15">
-        <v>40000</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>244</v>
+      <c r="H41" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I41" s="15">
+        <v>333000</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="7" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="F42" s="18">
         <v>10</v>
       </c>
-      <c r="G42" s="15" t="s">
-        <v>244</v>
+      <c r="G42" s="15">
+        <v>12000</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I42" s="15" t="s">
-        <v>244</v>
+      <c r="I42" s="15">
+        <v>335000</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="7" t="s">
-        <v>128</v>
+      <c r="E43" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="F43" s="18">
         <v>10</v>
@@ -7701,55 +7742,55 @@
         <v>244</v>
       </c>
       <c r="I43" s="15">
-        <v>380000</v>
+        <v>340380</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="7" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="F44" s="18">
         <v>10</v>
       </c>
       <c r="G44" s="15">
-        <v>12000</v>
-      </c>
-      <c r="H44" s="15">
-        <v>36000</v>
+        <v>16000</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I44" s="15">
-        <v>316008</v>
+        <v>348000</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="7" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="F45" s="18">
         <v>10</v>
@@ -7757,89 +7798,89 @@
       <c r="G45" s="15">
         <v>16000</v>
       </c>
-      <c r="H45" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>244</v>
+      <c r="H45" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I45" s="15">
+        <v>362000</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F46" s="18">
-        <v>0</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="15">
+        <v>16000</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I46" s="15" t="s">
-        <v>244</v>
+      <c r="I46" s="15">
+        <v>380000</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="12">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="7" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="F47" s="18">
-        <v>5</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="15">
+        <v>25000</v>
       </c>
       <c r="H47" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I47" s="15" t="s">
-        <v>244</v>
+      <c r="I47" s="15">
+        <v>390000</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12">
+        <v>15</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="7" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="F48" s="18">
         <v>10</v>
@@ -7847,71 +7888,71 @@
       <c r="G48" s="15">
         <v>16000</v>
       </c>
-      <c r="H48" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>244</v>
+      <c r="H48" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I48" s="15">
+        <v>395000</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="12">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="7" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="F49" s="18">
         <v>10</v>
       </c>
-      <c r="G49" s="15">
-        <v>25000</v>
+      <c r="G49" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I49" s="15">
-        <v>299000</v>
+        <v>400000</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="12">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F50" s="18">
         <v>10</v>
       </c>
       <c r="G50" s="15">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="H50" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I50" s="15">
-        <v>319000</v>
+        <v>421200</v>
       </c>
       <c r="J50" s="19" t="s">
         <v>256</v>
@@ -7919,53 +7960,53 @@
     </row>
     <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="12">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="7" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="F51" s="18">
         <v>10</v>
       </c>
       <c r="G51" s="15">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="H51" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I51" s="15">
-        <v>421200</v>
+      <c r="I51" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="12">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="7" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="F52" s="18">
-        <v>5</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="15">
+        <v>16000</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>244</v>
@@ -7974,352 +8015,352 @@
         <v>244</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="12">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="7" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="F53" s="18">
-        <v>10</v>
-      </c>
-      <c r="G53" s="15">
-        <v>15000</v>
+        <v>5</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H53" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I53" s="15">
-        <v>299000</v>
+      <c r="I53" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="12">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="7" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="F54" s="18">
-        <v>10</v>
-      </c>
-      <c r="G54" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H54" s="15">
-        <v>48000</v>
+        <v>0</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I54" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="12">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="7" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="F55" s="18">
-        <v>10</v>
-      </c>
-      <c r="G55" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H55" s="15">
-        <v>48000</v>
+        <v>0</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I55" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="12">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="7" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="F56" s="18">
-        <v>10</v>
-      </c>
-      <c r="G56" s="15">
-        <v>26000</v>
-      </c>
-      <c r="H56" s="15">
-        <v>95000</v>
-      </c>
-      <c r="I56" s="15">
-        <v>395000</v>
+        <v>0</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="12">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="7" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="F57" s="18">
-        <v>10</v>
-      </c>
-      <c r="G57" s="15">
-        <v>12000</v>
+        <v>0</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H57" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I57" s="15">
-        <v>291000</v>
+      <c r="I57" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="12">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="7" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="F58" s="18">
-        <v>10</v>
-      </c>
-      <c r="G58" s="15">
-        <v>16000</v>
+        <v>0</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I58" s="15">
-        <v>362000</v>
+      <c r="I58" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12">
+        <v>19</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>174</v>
-      </c>
       <c r="C59" s="6" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="7" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="F59" s="18">
-        <v>10</v>
-      </c>
-      <c r="G59" s="15">
-        <v>25000</v>
+        <v>0</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I59" s="15">
-        <v>390000</v>
+      <c r="I59" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="21" t="s">
-        <v>179</v>
+      <c r="E60" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="F60" s="18">
-        <v>10</v>
-      </c>
-      <c r="G60" s="15">
-        <v>16000</v>
+        <v>0</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I60" s="15">
-        <v>340380</v>
+      <c r="I60" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="7" t="s">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="F61" s="18">
-        <v>10</v>
-      </c>
-      <c r="G61" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H61" s="15">
-        <v>36000</v>
-      </c>
-      <c r="I61" s="15">
-        <v>339000</v>
+        <v>5</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="7" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="F62" s="18">
-        <v>10</v>
-      </c>
-      <c r="G62" s="15">
-        <v>15800</v>
-      </c>
-      <c r="H62" s="15">
-        <v>47400</v>
-      </c>
-      <c r="I62" s="15">
-        <v>285700</v>
+        <v>0</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="12">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="7" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="F63" s="18">
-        <v>10</v>
-      </c>
-      <c r="G63" s="15">
-        <v>14000</v>
+        <v>5</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I63" s="15">
-        <v>319000</v>
+      <c r="I63" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="12">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="7" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="F64" s="18">
         <v>0</v>
@@ -8339,47 +8380,47 @@
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="12">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="7" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="F65" s="18">
-        <v>10</v>
-      </c>
-      <c r="G65" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H65" s="15">
-        <v>48000</v>
+        <v>5</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I65" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="12">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="7" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="F66" s="18">
         <v>5</v>
@@ -8394,22 +8435,22 @@
         <v>244</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="12">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="21" t="s">
-        <v>200</v>
+      <c r="E67" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="F67" s="18">
         <v>0</v>
@@ -8429,18 +8470,16 @@
     </row>
     <row r="68" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="12">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="E68" s="8"/>
       <c r="F68" s="18">
         <v>0</v>
       </c>
@@ -8454,145 +8493,145 @@
         <v>244</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="12">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="7" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="F69" s="18">
-        <v>10</v>
-      </c>
-      <c r="G69" s="15">
-        <v>13200</v>
-      </c>
-      <c r="H69" s="15">
-        <v>39600</v>
+        <v>5</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I69" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="12">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="7" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="F70" s="18">
         <v>10</v>
       </c>
-      <c r="G70" s="15">
-        <v>16000</v>
+      <c r="G70" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I70" s="15">
-        <v>255000</v>
+      <c r="I70" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J70" s="19" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="12">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="7" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="F71" s="18">
-        <v>10</v>
-      </c>
-      <c r="G71" s="15">
-        <v>15000</v>
+        <v>0</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H71" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I71" s="15">
-        <v>333000</v>
+      <c r="I71" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J71" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="12">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="7" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="F72" s="18">
-        <v>10</v>
-      </c>
-      <c r="G72" s="15">
-        <v>16000</v>
+        <v>5</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H72" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I72" s="15">
-        <v>348000</v>
+      <c r="I72" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J72" s="19" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="12">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="7" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="F73" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G73" s="15" t="s">
         <v>244</v>
@@ -8600,119 +8639,119 @@
       <c r="H73" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I73" s="15">
-        <v>400000</v>
+      <c r="I73" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="12">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="7" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="F74" s="18">
-        <v>10</v>
-      </c>
-      <c r="G74" s="15">
-        <v>12000</v>
+        <v>0</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I74" s="15">
-        <v>335000</v>
+      <c r="I74" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J74" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="12">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="F75" s="18">
-        <v>10</v>
-      </c>
-      <c r="G75" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H75" s="15">
-        <v>48000</v>
+        <v>5</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I75" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J75" s="19" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="12">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="D76" s="3"/>
-      <c r="E76" s="7" t="s">
-        <v>227</v>
+      <c r="E76" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="F76" s="18">
-        <v>10</v>
-      </c>
-      <c r="G76" s="15">
-        <v>15000</v>
-      </c>
-      <c r="H76" s="15">
-        <v>45000</v>
-      </c>
-      <c r="I76" s="15">
-        <v>365000</v>
+        <v>0</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J76" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="12">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="7" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="F77" s="18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G77" s="15" t="s">
         <v>244</v>
@@ -8724,37 +8763,37 @@
         <v>244</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F78" s="18">
-        <v>10</v>
-      </c>
-      <c r="G78" s="15">
-        <v>16500</v>
-      </c>
-      <c r="H78" s="15">
-        <v>44000</v>
-      </c>
-      <c r="I78" s="15">
-        <v>268000</v>
+        <v>5</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -8857,81 +8896,81 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://www.16000.ir/" xr:uid="{60F6C7EF-8C3D-4BFF-9BBB-2F2C4AC587A6}"/>
-    <hyperlink ref="E3" r:id="rId2" display="http://26666.ir/" xr:uid="{DE9D53E3-95F0-4D9B-B6B2-9352ADA2CD0C}"/>
-    <hyperlink ref="E5" r:id="rId3" display="http://resellernic.ir/" xr:uid="{AFA2B38F-2ECD-4340-AA6D-15E2645BDF9A}"/>
-    <hyperlink ref="E6" r:id="rId4" display="http://karena.ir/" xr:uid="{DE7E1E3E-7F35-45CF-9B5F-555F3705068B}"/>
-    <hyperlink ref="E7" r:id="rId5" display="http://parsianhost.ir/" xr:uid="{57E233EE-D4D6-4F38-AD4A-E1EB18481D80}"/>
-    <hyperlink ref="E8" r:id="rId6" display="http://sabtaddress.ir/" xr:uid="{62DCEF83-9646-4770-932B-B0B4F3E23D62}"/>
-    <hyperlink ref="E9" r:id="rId7" display="http://asanrayaan.ir/" xr:uid="{4B6D7C6B-1F7B-4FB7-87CB-8903298FC133}"/>
-    <hyperlink ref="E10" r:id="rId8" display="http://www.takweb.ir/" xr:uid="{6E9AB595-7B69-4F24-A573-D85DA685B6CC}"/>
-    <hyperlink ref="E11" r:id="rId9" display="http://azaronline.ir/" xr:uid="{43BC29A5-0E42-4531-AE09-7F4732BE29D1}"/>
-    <hyperlink ref="E12" r:id="rId10" display="http://azaranweb.ir/" xr:uid="{607BC151-E12A-458F-8D5B-BC9F8AAD221A}"/>
+    <hyperlink ref="E53" r:id="rId1" display="http://www.16000.ir/" xr:uid="{60F6C7EF-8C3D-4BFF-9BBB-2F2C4AC587A6}"/>
+    <hyperlink ref="E16" r:id="rId2" display="http://26666.ir/" xr:uid="{DE9D53E3-95F0-4D9B-B6B2-9352ADA2CD0C}"/>
+    <hyperlink ref="E54" r:id="rId3" display="http://resellernic.ir/" xr:uid="{AFA2B38F-2ECD-4340-AA6D-15E2645BDF9A}"/>
+    <hyperlink ref="E55" r:id="rId4" display="http://karena.ir/" xr:uid="{DE7E1E3E-7F35-45CF-9B5F-555F3705068B}"/>
+    <hyperlink ref="E56" r:id="rId5" display="http://parsianhost.ir/" xr:uid="{57E233EE-D4D6-4F38-AD4A-E1EB18481D80}"/>
+    <hyperlink ref="E52" r:id="rId6" display="http://sabtaddress.ir/" xr:uid="{62DCEF83-9646-4770-932B-B0B4F3E23D62}"/>
+    <hyperlink ref="E57" r:id="rId7" display="http://asanrayaan.ir/" xr:uid="{4B6D7C6B-1F7B-4FB7-87CB-8903298FC133}"/>
+    <hyperlink ref="E58" r:id="rId8" display="http://www.takweb.ir/" xr:uid="{6E9AB595-7B69-4F24-A573-D85DA685B6CC}"/>
+    <hyperlink ref="E31" r:id="rId9" display="http://azaronline.ir/" xr:uid="{43BC29A5-0E42-4531-AE09-7F4732BE29D1}"/>
+    <hyperlink ref="E38" r:id="rId10" display="http://azaranweb.ir/" xr:uid="{607BC151-E12A-458F-8D5B-BC9F8AAD221A}"/>
     <hyperlink ref="E13" r:id="rId11" display="http://afradata.ir/" xr:uid="{3C911EA8-BB82-409C-AC81-4FDC2AAC94F1}"/>
     <hyperlink ref="E14" r:id="rId12" display="http://noornet.ir/" xr:uid="{0F5F0D8C-6DD1-4D75-9A5B-3D811C7A774E}"/>
-    <hyperlink ref="E15" r:id="rId13" display="http://www.idehnic.ir/" xr:uid="{65904291-CEAB-4231-B22A-718FDFFBF80E}"/>
-    <hyperlink ref="E16" r:id="rId14" display="http://www.datamizban.ir/" xr:uid="{0B02D814-F570-4DD9-AF6E-6F5EEE9A1EAF}"/>
-    <hyperlink ref="E17" r:id="rId15" display="http://idehplus.ir/" xr:uid="{EAEF8EA5-DB84-437F-B9EC-D9A79D5B065D}"/>
-    <hyperlink ref="E18" r:id="rId16" display="http://irpowerweb.ir/" xr:uid="{A28B473B-90EF-4877-96CC-DBCDFEF3ECF5}"/>
-    <hyperlink ref="E19" r:id="rId17" display="http://www.day.ir/" xr:uid="{50C095C0-22B2-4C8D-A8C6-4B4CAC1D01EC}"/>
-    <hyperlink ref="E20" r:id="rId18" display="http://diyakoreseller.ir/" xr:uid="{B2156543-5519-4DAD-951D-D3E781C70E04}"/>
-    <hyperlink ref="E21" r:id="rId19" display="http://novinpadideh.ir/" xr:uid="{25D977BA-51E5-4887-A897-484D6C535BA1}"/>
-    <hyperlink ref="E22" r:id="rId20" display="http://www.resellerapi.ir/" xr:uid="{95418DD6-641A-438C-A757-0F99BC168A7E}"/>
-    <hyperlink ref="E23" r:id="rId21" display="http://webramz.ir/" xr:uid="{93DDDF5C-C105-4383-9553-2DF3E20DE0FE}"/>
-    <hyperlink ref="E24" r:id="rId22" display="http://niba.ir/" xr:uid="{8AE7F955-3195-4A31-82F3-10EEE842AD31}"/>
-    <hyperlink ref="E25" r:id="rId23" display="http://mihanwebhost.ir/" xr:uid="{77A2A763-FC4E-441C-89AB-89BD6A508209}"/>
-    <hyperlink ref="E26" r:id="rId24" display="http://parhamreg.ir/" xr:uid="{09ADAD7B-C9DB-441A-AC34-789B2C7552BD}"/>
-    <hyperlink ref="E27" r:id="rId25" display="http://www.domainbazan.ir/" xr:uid="{C35B0161-A008-4463-8E7E-2AFC74F3025A}"/>
-    <hyperlink ref="E28" r:id="rId26" display="http://spdomain.ir/" xr:uid="{51950BD9-48B8-431B-8D24-A761E4908C81}"/>
-    <hyperlink ref="E29" r:id="rId27" display="http://sellir.ir/" xr:uid="{EB639299-551D-466E-9CCC-4B2A160FD110}"/>
-    <hyperlink ref="E30" r:id="rId28" display="http://www.faraso.ir/" xr:uid="{5EABF44A-59FA-4C56-916D-0C553CC3EA61}"/>
-    <hyperlink ref="E31" r:id="rId29" display="http://karait.ir/" xr:uid="{1494D3C1-8D6B-4579-9D11-3CA3D6454427}"/>
-    <hyperlink ref="E32" r:id="rId30" display="http://resellha.ir/" xr:uid="{2931D0D2-39A8-421A-AE99-9917321A4D5F}"/>
-    <hyperlink ref="E33" r:id="rId31" display="http://nickname.ir/" xr:uid="{A94D832F-1783-42FC-AEB4-388F6BB7C1EF}"/>
-    <hyperlink ref="E34" r:id="rId32" display="http://greenweb.ir/" xr:uid="{06F2DD3F-EF97-409C-85E9-EA8D1D30F27D}"/>
-    <hyperlink ref="E35" r:id="rId33" display="http://iranhost.ir/" xr:uid="{8AF585C4-0284-414F-9381-8FEE559DC380}"/>
-    <hyperlink ref="E36" r:id="rId34" display="http://jibres.ir/" xr:uid="{D6020873-348A-42CB-A4FA-E32564DEE34B}"/>
-    <hyperlink ref="E38" r:id="rId35" display="http://selva.ir/" xr:uid="{0349AAC3-FE52-4F76-A228-8F7A4A582FE0}"/>
-    <hyperlink ref="E39" r:id="rId36" display="http://basiscore.ir/" xr:uid="{03F0C379-8C93-41F2-BFD6-F0FB750439E9}"/>
-    <hyperlink ref="E40" r:id="rId37" display="http://www.takami.ir/" xr:uid="{3F100193-9340-4BD3-9EDB-DEF890D52088}"/>
-    <hyperlink ref="E41" r:id="rId38" display="http://hostpa.ir/" xr:uid="{7E21348B-648B-419F-8DD3-A24F499A278B}"/>
-    <hyperlink ref="E42" r:id="rId39" display="http://meitsgroup.ir/" xr:uid="{C7715FA2-865B-49D4-A8F2-84E09237B389}"/>
-    <hyperlink ref="E43" r:id="rId40" display="http://mizban.ir/" xr:uid="{394551FD-A1F0-479E-A9C4-01317B54327E}"/>
-    <hyperlink ref="E44" r:id="rId41" display="http://onlineserver.ir/" xr:uid="{627A8E10-EBBA-498D-9530-B623A0886FA3}"/>
-    <hyperlink ref="E45" r:id="rId42" display="http://mibonet.ir/" xr:uid="{25EA0027-A873-492D-AB73-A7C8345096EB}"/>
-    <hyperlink ref="E46" r:id="rId43" display="http://morvahost.ir/" xr:uid="{2B7FFCA6-C6E5-472A-8176-24A27E87CAC4}"/>
-    <hyperlink ref="E47" r:id="rId44" display="http://domainsystem.ir/" xr:uid="{08228125-9E51-48A7-AE9E-90AF7DA24658}"/>
-    <hyperlink ref="E48" r:id="rId45" display="http://webtala.ir/" xr:uid="{C688C0DC-6574-4104-BE8B-48934607B6D9}"/>
-    <hyperlink ref="E49" r:id="rId46" display="http://parsdev.ir/" xr:uid="{EEB067A0-ABD3-494F-B1F8-AB1D2DB9600D}"/>
-    <hyperlink ref="E50" r:id="rId47" display="http://nai.co.ir/" xr:uid="{F49436E2-6125-4A64-A472-B3EE5EDCEC04}"/>
-    <hyperlink ref="E51" r:id="rId48" display="http://www.neda.ir/" xr:uid="{1CB16D83-D814-445B-9453-10D54226A5A6}"/>
-    <hyperlink ref="E52" r:id="rId49" display="http://damaneh.ir/" xr:uid="{D3A00297-D3BE-44D6-9B55-8D89EC15957C}"/>
-    <hyperlink ref="E53" r:id="rId50" display="http://hostiran.ir/" xr:uid="{E756F6DA-9476-403F-9285-6371E94E3909}"/>
-    <hyperlink ref="E54" r:id="rId51" display="http://digibarkhat.ir/" xr:uid="{3926762E-5C8C-4326-9F3A-B44F80724952}"/>
-    <hyperlink ref="E55" r:id="rId52" display="http://mynet.ir/" xr:uid="{B83BCD81-4680-4892-BB47-953FC06D13F2}"/>
-    <hyperlink ref="E56" r:id="rId53" display="http://parsdata.ir/" xr:uid="{5B23869E-1282-4A40-9257-8EB66EA46C3A}"/>
-    <hyperlink ref="E57" r:id="rId54" display="http://parspack.ir/" xr:uid="{4E7E63F9-14B6-4C27-AB71-C7157F0D4655}"/>
-    <hyperlink ref="E58" r:id="rId55" display="http://www.bertina.ir/" xr:uid="{A8317657-D204-49D8-AAC1-469C2B67812C}"/>
-    <hyperlink ref="E59" r:id="rId56" display="http://persiantools.ir/" xr:uid="{49CFCF96-03A7-4BD9-A758-DCF284E5099C}"/>
-    <hyperlink ref="E60" r:id="rId57" xr:uid="{9418F2A7-642D-4D3D-BF56-C8FD117E5D5E}"/>
-    <hyperlink ref="E61" r:id="rId58" display="http://pouyasazan.ir/" xr:uid="{65949951-4302-4DA0-ACE7-C7E187F9A68A}"/>
-    <hyperlink ref="E62" r:id="rId59" display="http://talahost.ir/" xr:uid="{EB48832B-02C4-4B9C-921D-EE3D1396F1A0}"/>
-    <hyperlink ref="E63" r:id="rId60" display="http://raadcom.ir/" xr:uid="{6FB2E297-DE78-40AE-903A-4A0FE27F4D5C}"/>
-    <hyperlink ref="E64" r:id="rId61" display="http://domains.ir/" xr:uid="{44DB414F-EBDB-4FBB-931A-5E483BCE6EDD}"/>
-    <hyperlink ref="E65" r:id="rId62" display="http://www.reseller24.ir/" xr:uid="{FE666B60-C95A-4DCF-9009-12BCC613E0C8}"/>
-    <hyperlink ref="E66" r:id="rId63" display="http://domaino.ir/" xr:uid="{69CDFED6-ED1E-485A-BB87-41195BB19888}"/>
-    <hyperlink ref="E67" r:id="rId64" xr:uid="{2871766B-EA96-4074-8900-AA99294A6077}"/>
-    <hyperlink ref="E68" r:id="rId65" display="http://listip.ir/" xr:uid="{B5E630B1-5B2E-4967-9E75-8CA5A78B4A05}"/>
-    <hyperlink ref="E69" r:id="rId66" display="http://domain123.ir/" xr:uid="{EAFF5C2A-5567-4AAA-80FA-B7ABEDE8D0B5}"/>
-    <hyperlink ref="E70" r:id="rId67" display="http://sindad.co.ir/" xr:uid="{1D4D80E0-6D27-4D6D-A17D-A20E459C3EEB}"/>
-    <hyperlink ref="E71" r:id="rId68" display="http://webalfa.ir/" xr:uid="{8C726219-8E75-4EBD-89A0-9521A89FFEB2}"/>
-    <hyperlink ref="E72" r:id="rId69" display="http://server.ir/" xr:uid="{2772F217-9F85-41A7-B49E-6C4F41322129}"/>
-    <hyperlink ref="E73" r:id="rId70" display="http://www.ebnetway.ir/" xr:uid="{DE49B67A-0FB1-4721-AC37-AF35491F0505}"/>
-    <hyperlink ref="E74" r:id="rId71" display="http://hostida.ir/" xr:uid="{F6421A53-5639-46D6-92B3-634ED9196851}"/>
-    <hyperlink ref="E75" r:id="rId72" display="http://ariodata.ir/" xr:uid="{2DF8D1CF-5516-4608-BCA4-B6EAFC6BA7CB}"/>
-    <hyperlink ref="E76" r:id="rId73" display="http://mihannic.ir/" xr:uid="{410A5A61-6B29-4E96-875A-F1F878843F89}"/>
-    <hyperlink ref="E77" r:id="rId74" display="http://registrar.ir/" xr:uid="{3A32D409-B873-4CF5-91E3-222729A23665}"/>
-    <hyperlink ref="E78" r:id="rId75" display="http://hannoverit.ir/" xr:uid="{9D3586AA-7FE3-440A-B9C6-F810A49D5C29}"/>
+    <hyperlink ref="E51" r:id="rId13" display="http://www.idehnic.ir/" xr:uid="{65904291-CEAB-4231-B22A-718FDFFBF80E}"/>
+    <hyperlink ref="E48" r:id="rId14" display="http://www.datamizban.ir/" xr:uid="{0B02D814-F570-4DD9-AF6E-6F5EEE9A1EAF}"/>
+    <hyperlink ref="E27" r:id="rId15" display="http://idehplus.ir/" xr:uid="{EAEF8EA5-DB84-437F-B9EC-D9A79D5B065D}"/>
+    <hyperlink ref="E24" r:id="rId16" display="http://irpowerweb.ir/" xr:uid="{A28B473B-90EF-4877-96CC-DBCDFEF3ECF5}"/>
+    <hyperlink ref="E15" r:id="rId17" display="http://www.day.ir/" xr:uid="{50C095C0-22B2-4C8D-A8C6-4B4CAC1D01EC}"/>
+    <hyperlink ref="E59" r:id="rId18" display="http://diyakoreseller.ir/" xr:uid="{B2156543-5519-4DAD-951D-D3E781C70E04}"/>
+    <hyperlink ref="E60" r:id="rId19" display="http://novinpadideh.ir/" xr:uid="{25D977BA-51E5-4887-A897-484D6C535BA1}"/>
+    <hyperlink ref="E61" r:id="rId20" display="http://www.resellerapi.ir/" xr:uid="{95418DD6-641A-438C-A757-0F99BC168A7E}"/>
+    <hyperlink ref="E30" r:id="rId21" display="http://webramz.ir/" xr:uid="{93DDDF5C-C105-4383-9553-2DF3E20DE0FE}"/>
+    <hyperlink ref="E11" r:id="rId22" display="http://niba.ir/" xr:uid="{8AE7F955-3195-4A31-82F3-10EEE842AD31}"/>
+    <hyperlink ref="E34" r:id="rId23" display="http://mihanwebhost.ir/" xr:uid="{77A2A763-FC4E-441C-89AB-89BD6A508209}"/>
+    <hyperlink ref="E62" r:id="rId24" display="http://parhamreg.ir/" xr:uid="{09ADAD7B-C9DB-441A-AC34-789B2C7552BD}"/>
+    <hyperlink ref="E10" r:id="rId25" display="http://www.domainbazan.ir/" xr:uid="{C35B0161-A008-4463-8E7E-2AFC74F3025A}"/>
+    <hyperlink ref="E29" r:id="rId26" display="http://spdomain.ir/" xr:uid="{51950BD9-48B8-431B-8D24-A761E4908C81}"/>
+    <hyperlink ref="E63" r:id="rId27" display="http://sellir.ir/" xr:uid="{EB639299-551D-466E-9CCC-4B2A160FD110}"/>
+    <hyperlink ref="E33" r:id="rId28" display="http://www.faraso.ir/" xr:uid="{5EABF44A-59FA-4C56-916D-0C553CC3EA61}"/>
+    <hyperlink ref="E37" r:id="rId29" display="http://karait.ir/" xr:uid="{1494D3C1-8D6B-4579-9D11-3CA3D6454427}"/>
+    <hyperlink ref="E64" r:id="rId30" display="http://resellha.ir/" xr:uid="{2931D0D2-39A8-421A-AE99-9917321A4D5F}"/>
+    <hyperlink ref="E65" r:id="rId31" display="http://nickname.ir/" xr:uid="{A94D832F-1783-42FC-AEB4-388F6BB7C1EF}"/>
+    <hyperlink ref="E66" r:id="rId32" display="http://greenweb.ir/" xr:uid="{06F2DD3F-EF97-409C-85E9-EA8D1D30F27D}"/>
+    <hyperlink ref="E67" r:id="rId33" display="http://iranhost.ir/" xr:uid="{8AF585C4-0284-414F-9381-8FEE559DC380}"/>
+    <hyperlink ref="E6" r:id="rId34" display="http://jibres.ir/" xr:uid="{D6020873-348A-42CB-A4FA-E32564DEE34B}"/>
+    <hyperlink ref="E7" r:id="rId35" display="http://selva.ir/" xr:uid="{0349AAC3-FE52-4F76-A228-8F7A4A582FE0}"/>
+    <hyperlink ref="E69" r:id="rId36" display="http://basiscore.ir/" xr:uid="{03F0C379-8C93-41F2-BFD6-F0FB750439E9}"/>
+    <hyperlink ref="E25" r:id="rId37" display="http://www.takami.ir/" xr:uid="{3F100193-9340-4BD3-9EDB-DEF890D52088}"/>
+    <hyperlink ref="E5" r:id="rId38" display="http://hostpa.ir/" xr:uid="{7E21348B-648B-419F-8DD3-A24F499A278B}"/>
+    <hyperlink ref="E70" r:id="rId39" display="http://meitsgroup.ir/" xr:uid="{C7715FA2-865B-49D4-A8F2-84E09237B389}"/>
+    <hyperlink ref="E46" r:id="rId40" display="http://mizban.ir/" xr:uid="{394551FD-A1F0-479E-A9C4-01317B54327E}"/>
+    <hyperlink ref="E2" r:id="rId41" display="http://onlineserver.ir/" xr:uid="{627A8E10-EBBA-498D-9530-B623A0886FA3}"/>
+    <hyperlink ref="E18" r:id="rId42" display="http://mibonet.ir/" xr:uid="{25EA0027-A873-492D-AB73-A7C8345096EB}"/>
+    <hyperlink ref="E71" r:id="rId43" display="http://morvahost.ir/" xr:uid="{2B7FFCA6-C6E5-472A-8176-24A27E87CAC4}"/>
+    <hyperlink ref="E72" r:id="rId44" display="http://domainsystem.ir/" xr:uid="{08228125-9E51-48A7-AE9E-90AF7DA24658}"/>
+    <hyperlink ref="E19" r:id="rId45" display="http://webtala.ir/" xr:uid="{C688C0DC-6574-4104-BE8B-48934607B6D9}"/>
+    <hyperlink ref="E36" r:id="rId46" display="http://parsdev.ir/" xr:uid="{EEB067A0-ABD3-494F-B1F8-AB1D2DB9600D}"/>
+    <hyperlink ref="E39" r:id="rId47" display="http://nai.co.ir/" xr:uid="{F49436E2-6125-4A64-A472-B3EE5EDCEC04}"/>
+    <hyperlink ref="E50" r:id="rId48" display="http://www.neda.ir/" xr:uid="{1CB16D83-D814-445B-9453-10D54226A5A6}"/>
+    <hyperlink ref="E73" r:id="rId49" display="http://damaneh.ir/" xr:uid="{D3A00297-D3BE-44D6-9B55-8D89EC15957C}"/>
+    <hyperlink ref="E35" r:id="rId50" display="http://hostiran.ir/" xr:uid="{E756F6DA-9476-403F-9285-6371E94E3909}"/>
+    <hyperlink ref="E20" r:id="rId51" display="http://digibarkhat.ir/" xr:uid="{3926762E-5C8C-4326-9F3A-B44F80724952}"/>
+    <hyperlink ref="E21" r:id="rId52" display="http://mynet.ir/" xr:uid="{B83BCD81-4680-4892-BB47-953FC06D13F2}"/>
+    <hyperlink ref="E26" r:id="rId53" display="http://parsdata.ir/" xr:uid="{5B23869E-1282-4A40-9257-8EB66EA46C3A}"/>
+    <hyperlink ref="E32" r:id="rId54" display="http://parspack.ir/" xr:uid="{4E7E63F9-14B6-4C27-AB71-C7157F0D4655}"/>
+    <hyperlink ref="E45" r:id="rId55" display="http://www.bertina.ir/" xr:uid="{A8317657-D204-49D8-AAC1-469C2B67812C}"/>
+    <hyperlink ref="E47" r:id="rId56" display="http://persiantools.ir/" xr:uid="{49CFCF96-03A7-4BD9-A758-DCF284E5099C}"/>
+    <hyperlink ref="E43" r:id="rId57" xr:uid="{9418F2A7-642D-4D3D-BF56-C8FD117E5D5E}"/>
+    <hyperlink ref="E3" r:id="rId58" display="http://pouyasazan.ir/" xr:uid="{65949951-4302-4DA0-ACE7-C7E187F9A68A}"/>
+    <hyperlink ref="E12" r:id="rId59" display="http://talahost.ir/" xr:uid="{EB48832B-02C4-4B9C-921D-EE3D1396F1A0}"/>
+    <hyperlink ref="E40" r:id="rId60" display="http://raadcom.ir/" xr:uid="{6FB2E297-DE78-40AE-903A-4A0FE27F4D5C}"/>
+    <hyperlink ref="E74" r:id="rId61" display="http://domains.ir/" xr:uid="{44DB414F-EBDB-4FBB-931A-5E483BCE6EDD}"/>
+    <hyperlink ref="E22" r:id="rId62" display="http://www.reseller24.ir/" xr:uid="{FE666B60-C95A-4DCF-9009-12BCC613E0C8}"/>
+    <hyperlink ref="E75" r:id="rId63" display="http://domaino.ir/" xr:uid="{69CDFED6-ED1E-485A-BB87-41195BB19888}"/>
+    <hyperlink ref="E76" r:id="rId64" xr:uid="{2871766B-EA96-4074-8900-AA99294A6077}"/>
+    <hyperlink ref="E77" r:id="rId65" display="http://listip.ir/" xr:uid="{B5E630B1-5B2E-4967-9E75-8CA5A78B4A05}"/>
+    <hyperlink ref="E4" r:id="rId66" display="http://domain123.ir/" xr:uid="{EAFF5C2A-5567-4AAA-80FA-B7ABEDE8D0B5}"/>
+    <hyperlink ref="E28" r:id="rId67" display="http://sindad.co.ir/" xr:uid="{1D4D80E0-6D27-4D6D-A17D-A20E459C3EEB}"/>
+    <hyperlink ref="E41" r:id="rId68" display="http://webalfa.ir/" xr:uid="{8C726219-8E75-4EBD-89A0-9521A89FFEB2}"/>
+    <hyperlink ref="E44" r:id="rId69" display="http://server.ir/" xr:uid="{2772F217-9F85-41A7-B49E-6C4F41322129}"/>
+    <hyperlink ref="E49" r:id="rId70" display="http://www.ebnetway.ir/" xr:uid="{DE49B67A-0FB1-4721-AC37-AF35491F0505}"/>
+    <hyperlink ref="E42" r:id="rId71" display="http://hostida.ir/" xr:uid="{F6421A53-5639-46D6-92B3-634ED9196851}"/>
+    <hyperlink ref="E23" r:id="rId72" display="http://ariodata.ir/" xr:uid="{2DF8D1CF-5516-4608-BCA4-B6EAFC6BA7CB}"/>
+    <hyperlink ref="E9" r:id="rId73" display="http://mihannic.ir/" xr:uid="{410A5A61-6B29-4E96-875A-F1F878843F89}"/>
+    <hyperlink ref="E78" r:id="rId74" display="http://registrar.ir/" xr:uid="{3A32D409-B873-4CF5-91E3-222729A23665}"/>
+    <hyperlink ref="E8" r:id="rId75" display="http://hannoverit.ir/" xr:uid="{9D3586AA-7FE3-440A-B9C6-F810A49D5C29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>

--- a/business/domain/domain-irnic-price-compare-list.xlsx
+++ b/business/domain/domain-irnic-price-compare-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\domain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E44483F-4709-4D0E-8A7D-0B5307B661BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8034A8-21A9-4376-A392-CE67F8E3436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{656E8D54-B9ED-4B19-91BC-7A9F1ADCF6AA}"/>
   </bookViews>
@@ -1466,13 +1466,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1527,13 +1527,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1771,13 +1771,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1954,13 +1954,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2015,13 +2015,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2076,13 +2076,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2137,13 +2137,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2198,13 +2198,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2259,13 +2259,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2320,13 +2320,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2381,13 +2381,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2442,13 +2442,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2686,13 +2686,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2747,13 +2747,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2808,13 +2808,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2930,13 +2930,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2991,13 +2991,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3113,13 +3113,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3174,13 +3174,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3479,13 +3479,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3601,13 +3601,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3723,13 +3723,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3784,13 +3784,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3906,13 +3906,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3967,13 +3967,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4028,13 +4028,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4211,13 +4211,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4272,13 +4272,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4333,13 +4333,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4394,13 +4394,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4516,13 +4516,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4577,13 +4577,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4638,13 +4638,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4699,13 +4699,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4760,13 +4760,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4821,13 +4821,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4882,13 +4882,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4943,13 +4943,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5004,13 +5004,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5065,13 +5065,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5126,13 +5126,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5248,13 +5248,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5492,13 +5492,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5553,13 +5553,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5614,13 +5614,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5675,13 +5675,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5736,13 +5736,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5797,13 +5797,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5858,13 +5858,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5919,13 +5919,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6041,13 +6041,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6105,7 +6105,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{548BE326-327C-454C-ACE6-EB8CB003DD8D}" name="Table1" displayName="Table1" ref="A1:J78" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:J78" xr:uid="{548BE326-327C-454C-ACE6-EB8CB003DD8D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J78">
-    <sortCondition ref="H1:H78"/>
+    <sortCondition ref="G2:G78"/>
+    <sortCondition ref="H2:H78"/>
+    <sortCondition ref="I2:I78"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{2A23BA31-9B49-4E05-BE22-9FA47E3CF962}" name="#" dataDxfId="12"/>
@@ -6435,7 +6437,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6491,60 +6493,60 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12">
-        <v>43</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="18">
+      <c r="A2" s="24">
+        <v>35</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="29">
         <v>10</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="30">
         <v>12000</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="30">
         <v>36000</v>
       </c>
-      <c r="I2" s="15">
-        <v>316008</v>
-      </c>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="30">
+        <v>299000</v>
+      </c>
+      <c r="J2" s="31" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="7" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="F3" s="18">
         <v>10</v>
       </c>
       <c r="G3" s="15">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="H3" s="15">
         <v>36000</v>
       </c>
       <c r="I3" s="15">
-        <v>339000</v>
+        <v>316008</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>244</v>
@@ -6552,26 +6554,26 @@
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="F4" s="18">
         <v>10</v>
       </c>
       <c r="G4" s="15">
-        <v>13200</v>
+        <v>12000</v>
       </c>
       <c r="H4" s="15">
-        <v>39600</v>
+        <v>45000</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>244</v>
@@ -6582,525 +6584,527 @@
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="7" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="F5" s="18">
         <v>10</v>
       </c>
       <c r="G5" s="15">
-        <v>15000</v>
-      </c>
-      <c r="H5" s="15">
-        <v>40000</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>244</v>
+        <v>12000</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="15">
+        <v>291000</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="24">
-        <v>35</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="29">
+      <c r="A6" s="12">
+        <v>73</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="18">
         <v>10</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="15">
         <v>12000</v>
       </c>
-      <c r="H6" s="30">
-        <v>42000</v>
-      </c>
-      <c r="I6" s="30">
-        <v>318000</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>244</v>
+      <c r="H6" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="15">
+        <v>335000</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="F7" s="18">
         <v>10</v>
       </c>
       <c r="G7" s="15">
-        <v>14000</v>
-      </c>
-      <c r="H7" s="15">
-        <v>42000</v>
+        <v>12000</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
-        <v>77</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="F8" s="18">
         <v>10</v>
       </c>
       <c r="G8" s="15">
-        <v>16500</v>
-      </c>
-      <c r="H8" s="15">
-        <v>44000</v>
+        <v>12900</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I8" s="15">
-        <v>268000</v>
+        <v>315000</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="7" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="F9" s="18">
         <v>10</v>
       </c>
       <c r="G9" s="15">
-        <v>15000</v>
+        <v>13200</v>
       </c>
       <c r="H9" s="15">
-        <v>45000</v>
-      </c>
-      <c r="I9" s="15">
-        <v>365000</v>
+        <v>39600</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="F10" s="18">
         <v>10</v>
       </c>
       <c r="G10" s="15">
-        <v>12000</v>
+        <v>13900</v>
       </c>
       <c r="H10" s="15">
-        <v>45000</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>244</v>
+        <v>48000</v>
+      </c>
+      <c r="I10" s="15">
+        <v>338000</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F11" s="18">
         <v>10</v>
       </c>
       <c r="G11" s="15">
-        <v>14940</v>
+        <v>14000</v>
       </c>
       <c r="H11" s="15">
-        <v>45750</v>
+        <v>42000</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="7" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="F12" s="18">
         <v>10</v>
       </c>
       <c r="G12" s="15">
-        <v>15800</v>
-      </c>
-      <c r="H12" s="15">
-        <v>47400</v>
+        <v>14000</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I12" s="15">
-        <v>285700</v>
+        <v>319000</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="F13" s="18">
         <v>10</v>
       </c>
       <c r="G13" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H13" s="15">
-        <v>48000</v>
+        <v>14000</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I13" s="15">
-        <v>0</v>
+        <v>319000</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F14" s="18">
         <v>10</v>
       </c>
       <c r="G14" s="15">
-        <v>13900</v>
-      </c>
-      <c r="H14" s="15">
-        <v>48000</v>
+        <v>14900</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I14" s="15">
-        <v>338000</v>
+        <v>295000</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F15" s="18">
         <v>10</v>
       </c>
       <c r="G15" s="15">
-        <v>16000</v>
+        <v>14940</v>
       </c>
       <c r="H15" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I15" s="15">
-        <v>365000</v>
+        <v>45750</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="F16" s="18">
         <v>10</v>
       </c>
       <c r="G16" s="15">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="H16" s="15">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="7" t="s">
+        <v>227</v>
+      </c>
       <c r="F17" s="18">
         <v>10</v>
       </c>
       <c r="G17" s="15">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="H17" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>244</v>
+        <v>45000</v>
+      </c>
+      <c r="I17" s="15">
+        <v>365000</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="F18" s="18">
         <v>10</v>
       </c>
       <c r="G18" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H18" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>244</v>
+        <v>15000</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I18" s="15">
+        <v>279000</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="F19" s="18">
         <v>10</v>
       </c>
       <c r="G19" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H19" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>244</v>
+        <v>15000</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I19" s="15">
+        <v>299000</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="7" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="F20" s="18">
         <v>10</v>
       </c>
       <c r="G20" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H20" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>244</v>
+        <v>15000</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I20" s="15">
+        <v>333000</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="F21" s="18">
         <v>10</v>
       </c>
       <c r="G21" s="15">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="H21" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>244</v>
+        <v>47400</v>
+      </c>
+      <c r="I21" s="15">
+        <v>285700</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F22" s="18">
         <v>10</v>
@@ -7109,28 +7113,28 @@
         <v>16000</v>
       </c>
       <c r="H22" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>244</v>
+        <v>36000</v>
+      </c>
+      <c r="I22" s="15">
+        <v>339000</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>222</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="7" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="F23" s="18">
         <v>10</v>
@@ -7141,125 +7145,123 @@
       <c r="H23" s="15">
         <v>48000</v>
       </c>
-      <c r="I23" s="15" t="s">
-        <v>244</v>
+      <c r="I23" s="15">
+        <v>0</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F24" s="18">
         <v>10</v>
       </c>
       <c r="G24" s="15">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="H24" s="15">
-        <v>57000</v>
+        <v>48000</v>
       </c>
       <c r="I24" s="15">
-        <v>348000</v>
+        <v>365000</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="F25" s="18">
         <v>10</v>
       </c>
       <c r="G25" s="15">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="H25" s="15">
-        <v>60000</v>
+        <v>48000</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="7" t="s">
-        <v>167</v>
-      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="18">
         <v>10</v>
       </c>
       <c r="G26" s="15">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="H26" s="15">
-        <v>95000</v>
-      </c>
-      <c r="I26" s="15">
-        <v>395000</v>
+        <v>48000</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="F27" s="18">
         <v>10</v>
       </c>
       <c r="G27" s="15">
-        <v>37000</v>
+        <v>16000</v>
       </c>
       <c r="H27" s="15">
-        <v>112000</v>
+        <v>48000</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>244</v>
@@ -7270,17 +7272,17 @@
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="7" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="F28" s="18">
         <v>10</v>
@@ -7288,89 +7290,89 @@
       <c r="G28" s="15">
         <v>16000</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I28" s="15">
-        <v>255000</v>
+      <c r="H28" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="7" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="F29" s="18">
         <v>10</v>
       </c>
       <c r="G29" s="15">
-        <v>15000</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I29" s="15">
-        <v>279000</v>
+        <v>16000</v>
+      </c>
+      <c r="H29" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="7" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="F30" s="18">
         <v>10</v>
       </c>
       <c r="G30" s="15">
-        <v>16900</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I30" s="15">
-        <v>279000</v>
+        <v>16000</v>
+      </c>
+      <c r="H30" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="F31" s="18">
         <v>10</v>
@@ -7378,89 +7380,89 @@
       <c r="G31" s="15">
         <v>16000</v>
       </c>
-      <c r="H31" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I31" s="15">
-        <v>285000</v>
+      <c r="H31" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="7" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="F32" s="18">
         <v>10</v>
       </c>
       <c r="G32" s="15">
-        <v>12000</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I32" s="15">
-        <v>291000</v>
+        <v>16000</v>
+      </c>
+      <c r="H32" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="7" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="F33" s="18">
         <v>10</v>
       </c>
       <c r="G33" s="15">
-        <v>14900</v>
+        <v>16000</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I33" s="15">
-        <v>295000</v>
+        <v>255000</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="7" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>10</v>
@@ -7472,7 +7474,7 @@
         <v>244</v>
       </c>
       <c r="I34" s="15">
-        <v>298000</v>
+        <v>285000</v>
       </c>
       <c r="J34" s="19" t="s">
         <v>260</v>
@@ -7480,77 +7482,77 @@
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="7" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="F35" s="18">
         <v>10</v>
       </c>
       <c r="G35" s="15">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I35" s="15">
-        <v>299000</v>
+        <v>298000</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="7" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="F36" s="18">
         <v>10</v>
       </c>
       <c r="G36" s="15">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I36" s="15">
-        <v>299000</v>
+        <v>310000</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="7" t="s">
-        <v>93</v>
+      <c r="E37" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="F37" s="18">
         <v>10</v>
@@ -7562,67 +7564,67 @@
         <v>244</v>
       </c>
       <c r="I37" s="15">
-        <v>310000</v>
+        <v>340380</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="7" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="F38" s="18">
         <v>10</v>
       </c>
       <c r="G38" s="15">
-        <v>12900</v>
+        <v>16000</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I38" s="15">
-        <v>315000</v>
+        <v>348000</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="7" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="F39" s="18">
         <v>10</v>
       </c>
       <c r="G39" s="15">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I39" s="15">
-        <v>319000</v>
+        <v>362000</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>256</v>
@@ -7630,89 +7632,89 @@
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="7" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="F40" s="18">
         <v>10</v>
       </c>
       <c r="G40" s="15">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I40" s="15">
-        <v>319000</v>
+        <v>380000</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="7" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="F41" s="18">
         <v>10</v>
       </c>
       <c r="G41" s="15">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I41" s="15">
-        <v>333000</v>
+        <v>395000</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="7" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="F42" s="18">
         <v>10</v>
       </c>
       <c r="G42" s="15">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I42" s="15">
-        <v>335000</v>
+        <v>421200</v>
       </c>
       <c r="J42" s="19" t="s">
         <v>256</v>
@@ -7720,17 +7722,17 @@
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="21" t="s">
-        <v>179</v>
+      <c r="E43" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="F43" s="18">
         <v>10</v>
@@ -7741,281 +7743,281 @@
       <c r="H43" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I43" s="15">
-        <v>340380</v>
+      <c r="I43" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
-        <v>71</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="12"/>
       <c r="E44" s="7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F44" s="18">
         <v>10</v>
       </c>
       <c r="G44" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>244</v>
+        <v>16500</v>
+      </c>
+      <c r="H44" s="15">
+        <v>44000</v>
       </c>
       <c r="I44" s="15">
-        <v>348000</v>
+        <v>268000</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="7" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="F45" s="18">
         <v>10</v>
       </c>
       <c r="G45" s="15">
-        <v>16000</v>
+        <v>16900</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I45" s="15">
-        <v>362000</v>
+        <v>279000</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="7" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="F46" s="18">
         <v>10</v>
       </c>
       <c r="G46" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>244</v>
+        <v>19000</v>
+      </c>
+      <c r="H46" s="15">
+        <v>57000</v>
       </c>
       <c r="I46" s="15">
-        <v>380000</v>
+        <v>348000</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="12">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="7" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="F47" s="18">
         <v>10</v>
       </c>
       <c r="G47" s="15">
-        <v>25000</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I47" s="15">
-        <v>390000</v>
+        <v>24000</v>
+      </c>
+      <c r="H47" s="15">
+        <v>60000</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="7" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F48" s="18">
         <v>10</v>
       </c>
       <c r="G48" s="15">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I48" s="15">
-        <v>395000</v>
+        <v>299000</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="12">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="7" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="F49" s="18">
         <v>10</v>
       </c>
-      <c r="G49" s="15" t="s">
-        <v>244</v>
+      <c r="G49" s="15">
+        <v>25000</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I49" s="15">
-        <v>400000</v>
+        <v>390000</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="12">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="F50" s="18">
         <v>10</v>
       </c>
       <c r="G50" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>244</v>
+        <v>26000</v>
+      </c>
+      <c r="H50" s="15">
+        <v>95000</v>
       </c>
       <c r="I50" s="15">
-        <v>421200</v>
+        <v>395000</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F51" s="18">
         <v>10</v>
       </c>
       <c r="G51" s="15">
-        <v>12000</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>244</v>
+        <v>37000</v>
+      </c>
+      <c r="H51" s="15">
+        <v>112000</v>
       </c>
       <c r="I51" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="12">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="7" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="F52" s="18">
         <v>10</v>
       </c>
-      <c r="G52" s="15">
-        <v>16000</v>
+      <c r="G52" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I52" s="15" t="s">
-        <v>244</v>
+      <c r="I52" s="15">
+        <v>400000</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -8897,80 +8899,80 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E53" r:id="rId1" display="http://www.16000.ir/" xr:uid="{60F6C7EF-8C3D-4BFF-9BBB-2F2C4AC587A6}"/>
-    <hyperlink ref="E16" r:id="rId2" display="http://26666.ir/" xr:uid="{DE9D53E3-95F0-4D9B-B6B2-9352ADA2CD0C}"/>
+    <hyperlink ref="E25" r:id="rId2" display="http://26666.ir/" xr:uid="{DE9D53E3-95F0-4D9B-B6B2-9352ADA2CD0C}"/>
     <hyperlink ref="E54" r:id="rId3" display="http://resellernic.ir/" xr:uid="{AFA2B38F-2ECD-4340-AA6D-15E2645BDF9A}"/>
     <hyperlink ref="E55" r:id="rId4" display="http://karena.ir/" xr:uid="{DE7E1E3E-7F35-45CF-9B5F-555F3705068B}"/>
     <hyperlink ref="E56" r:id="rId5" display="http://parsianhost.ir/" xr:uid="{57E233EE-D4D6-4F38-AD4A-E1EB18481D80}"/>
-    <hyperlink ref="E52" r:id="rId6" display="http://sabtaddress.ir/" xr:uid="{62DCEF83-9646-4770-932B-B0B4F3E23D62}"/>
+    <hyperlink ref="E43" r:id="rId6" display="http://sabtaddress.ir/" xr:uid="{62DCEF83-9646-4770-932B-B0B4F3E23D62}"/>
     <hyperlink ref="E57" r:id="rId7" display="http://asanrayaan.ir/" xr:uid="{4B6D7C6B-1F7B-4FB7-87CB-8903298FC133}"/>
     <hyperlink ref="E58" r:id="rId8" display="http://www.takweb.ir/" xr:uid="{6E9AB595-7B69-4F24-A573-D85DA685B6CC}"/>
-    <hyperlink ref="E31" r:id="rId9" display="http://azaronline.ir/" xr:uid="{43BC29A5-0E42-4531-AE09-7F4732BE29D1}"/>
-    <hyperlink ref="E38" r:id="rId10" display="http://azaranweb.ir/" xr:uid="{607BC151-E12A-458F-8D5B-BC9F8AAD221A}"/>
-    <hyperlink ref="E13" r:id="rId11" display="http://afradata.ir/" xr:uid="{3C911EA8-BB82-409C-AC81-4FDC2AAC94F1}"/>
-    <hyperlink ref="E14" r:id="rId12" display="http://noornet.ir/" xr:uid="{0F5F0D8C-6DD1-4D75-9A5B-3D811C7A774E}"/>
-    <hyperlink ref="E51" r:id="rId13" display="http://www.idehnic.ir/" xr:uid="{65904291-CEAB-4231-B22A-718FDFFBF80E}"/>
-    <hyperlink ref="E48" r:id="rId14" display="http://www.datamizban.ir/" xr:uid="{0B02D814-F570-4DD9-AF6E-6F5EEE9A1EAF}"/>
-    <hyperlink ref="E27" r:id="rId15" display="http://idehplus.ir/" xr:uid="{EAEF8EA5-DB84-437F-B9EC-D9A79D5B065D}"/>
-    <hyperlink ref="E24" r:id="rId16" display="http://irpowerweb.ir/" xr:uid="{A28B473B-90EF-4877-96CC-DBCDFEF3ECF5}"/>
-    <hyperlink ref="E15" r:id="rId17" display="http://www.day.ir/" xr:uid="{50C095C0-22B2-4C8D-A8C6-4B4CAC1D01EC}"/>
+    <hyperlink ref="E34" r:id="rId9" display="http://azaronline.ir/" xr:uid="{43BC29A5-0E42-4531-AE09-7F4732BE29D1}"/>
+    <hyperlink ref="E8" r:id="rId10" display="http://azaranweb.ir/" xr:uid="{607BC151-E12A-458F-8D5B-BC9F8AAD221A}"/>
+    <hyperlink ref="E23" r:id="rId11" display="http://afradata.ir/" xr:uid="{3C911EA8-BB82-409C-AC81-4FDC2AAC94F1}"/>
+    <hyperlink ref="E10" r:id="rId12" display="http://noornet.ir/" xr:uid="{0F5F0D8C-6DD1-4D75-9A5B-3D811C7A774E}"/>
+    <hyperlink ref="E7" r:id="rId13" display="http://www.idehnic.ir/" xr:uid="{65904291-CEAB-4231-B22A-718FDFFBF80E}"/>
+    <hyperlink ref="E41" r:id="rId14" display="http://www.datamizban.ir/" xr:uid="{0B02D814-F570-4DD9-AF6E-6F5EEE9A1EAF}"/>
+    <hyperlink ref="E51" r:id="rId15" display="http://idehplus.ir/" xr:uid="{EAEF8EA5-DB84-437F-B9EC-D9A79D5B065D}"/>
+    <hyperlink ref="E46" r:id="rId16" display="http://irpowerweb.ir/" xr:uid="{A28B473B-90EF-4877-96CC-DBCDFEF3ECF5}"/>
+    <hyperlink ref="E24" r:id="rId17" display="http://www.day.ir/" xr:uid="{50C095C0-22B2-4C8D-A8C6-4B4CAC1D01EC}"/>
     <hyperlink ref="E59" r:id="rId18" display="http://diyakoreseller.ir/" xr:uid="{B2156543-5519-4DAD-951D-D3E781C70E04}"/>
     <hyperlink ref="E60" r:id="rId19" display="http://novinpadideh.ir/" xr:uid="{25D977BA-51E5-4887-A897-484D6C535BA1}"/>
     <hyperlink ref="E61" r:id="rId20" display="http://www.resellerapi.ir/" xr:uid="{95418DD6-641A-438C-A757-0F99BC168A7E}"/>
-    <hyperlink ref="E30" r:id="rId21" display="http://webramz.ir/" xr:uid="{93DDDF5C-C105-4383-9553-2DF3E20DE0FE}"/>
-    <hyperlink ref="E11" r:id="rId22" display="http://niba.ir/" xr:uid="{8AE7F955-3195-4A31-82F3-10EEE842AD31}"/>
-    <hyperlink ref="E34" r:id="rId23" display="http://mihanwebhost.ir/" xr:uid="{77A2A763-FC4E-441C-89AB-89BD6A508209}"/>
+    <hyperlink ref="E45" r:id="rId21" display="http://webramz.ir/" xr:uid="{93DDDF5C-C105-4383-9553-2DF3E20DE0FE}"/>
+    <hyperlink ref="E15" r:id="rId22" display="http://niba.ir/" xr:uid="{8AE7F955-3195-4A31-82F3-10EEE842AD31}"/>
+    <hyperlink ref="E35" r:id="rId23" display="http://mihanwebhost.ir/" xr:uid="{77A2A763-FC4E-441C-89AB-89BD6A508209}"/>
     <hyperlink ref="E62" r:id="rId24" display="http://parhamreg.ir/" xr:uid="{09ADAD7B-C9DB-441A-AC34-789B2C7552BD}"/>
-    <hyperlink ref="E10" r:id="rId25" display="http://www.domainbazan.ir/" xr:uid="{C35B0161-A008-4463-8E7E-2AFC74F3025A}"/>
-    <hyperlink ref="E29" r:id="rId26" display="http://spdomain.ir/" xr:uid="{51950BD9-48B8-431B-8D24-A761E4908C81}"/>
+    <hyperlink ref="E4" r:id="rId25" display="http://www.domainbazan.ir/" xr:uid="{C35B0161-A008-4463-8E7E-2AFC74F3025A}"/>
+    <hyperlink ref="E18" r:id="rId26" display="http://spdomain.ir/" xr:uid="{51950BD9-48B8-431B-8D24-A761E4908C81}"/>
     <hyperlink ref="E63" r:id="rId27" display="http://sellir.ir/" xr:uid="{EB639299-551D-466E-9CCC-4B2A160FD110}"/>
-    <hyperlink ref="E33" r:id="rId28" display="http://www.faraso.ir/" xr:uid="{5EABF44A-59FA-4C56-916D-0C553CC3EA61}"/>
-    <hyperlink ref="E37" r:id="rId29" display="http://karait.ir/" xr:uid="{1494D3C1-8D6B-4579-9D11-3CA3D6454427}"/>
+    <hyperlink ref="E14" r:id="rId28" display="http://www.faraso.ir/" xr:uid="{5EABF44A-59FA-4C56-916D-0C553CC3EA61}"/>
+    <hyperlink ref="E36" r:id="rId29" display="http://karait.ir/" xr:uid="{1494D3C1-8D6B-4579-9D11-3CA3D6454427}"/>
     <hyperlink ref="E64" r:id="rId30" display="http://resellha.ir/" xr:uid="{2931D0D2-39A8-421A-AE99-9917321A4D5F}"/>
     <hyperlink ref="E65" r:id="rId31" display="http://nickname.ir/" xr:uid="{A94D832F-1783-42FC-AEB4-388F6BB7C1EF}"/>
     <hyperlink ref="E66" r:id="rId32" display="http://greenweb.ir/" xr:uid="{06F2DD3F-EF97-409C-85E9-EA8D1D30F27D}"/>
     <hyperlink ref="E67" r:id="rId33" display="http://iranhost.ir/" xr:uid="{8AF585C4-0284-414F-9381-8FEE559DC380}"/>
-    <hyperlink ref="E6" r:id="rId34" display="http://jibres.ir/" xr:uid="{D6020873-348A-42CB-A4FA-E32564DEE34B}"/>
-    <hyperlink ref="E7" r:id="rId35" display="http://selva.ir/" xr:uid="{0349AAC3-FE52-4F76-A228-8F7A4A582FE0}"/>
+    <hyperlink ref="E2" r:id="rId34" display="http://jibres.ir/" xr:uid="{D6020873-348A-42CB-A4FA-E32564DEE34B}"/>
+    <hyperlink ref="E11" r:id="rId35" display="http://selva.ir/" xr:uid="{0349AAC3-FE52-4F76-A228-8F7A4A582FE0}"/>
     <hyperlink ref="E69" r:id="rId36" display="http://basiscore.ir/" xr:uid="{03F0C379-8C93-41F2-BFD6-F0FB750439E9}"/>
-    <hyperlink ref="E25" r:id="rId37" display="http://www.takami.ir/" xr:uid="{3F100193-9340-4BD3-9EDB-DEF890D52088}"/>
-    <hyperlink ref="E5" r:id="rId38" display="http://hostpa.ir/" xr:uid="{7E21348B-648B-419F-8DD3-A24F499A278B}"/>
+    <hyperlink ref="E47" r:id="rId37" display="http://www.takami.ir/" xr:uid="{3F100193-9340-4BD3-9EDB-DEF890D52088}"/>
+    <hyperlink ref="E16" r:id="rId38" display="http://hostpa.ir/" xr:uid="{7E21348B-648B-419F-8DD3-A24F499A278B}"/>
     <hyperlink ref="E70" r:id="rId39" display="http://meitsgroup.ir/" xr:uid="{C7715FA2-865B-49D4-A8F2-84E09237B389}"/>
-    <hyperlink ref="E46" r:id="rId40" display="http://mizban.ir/" xr:uid="{394551FD-A1F0-479E-A9C4-01317B54327E}"/>
-    <hyperlink ref="E2" r:id="rId41" display="http://onlineserver.ir/" xr:uid="{627A8E10-EBBA-498D-9530-B623A0886FA3}"/>
-    <hyperlink ref="E18" r:id="rId42" display="http://mibonet.ir/" xr:uid="{25EA0027-A873-492D-AB73-A7C8345096EB}"/>
+    <hyperlink ref="E40" r:id="rId40" display="http://mizban.ir/" xr:uid="{394551FD-A1F0-479E-A9C4-01317B54327E}"/>
+    <hyperlink ref="E3" r:id="rId41" display="http://onlineserver.ir/" xr:uid="{627A8E10-EBBA-498D-9530-B623A0886FA3}"/>
+    <hyperlink ref="E27" r:id="rId42" display="http://mibonet.ir/" xr:uid="{25EA0027-A873-492D-AB73-A7C8345096EB}"/>
     <hyperlink ref="E71" r:id="rId43" display="http://morvahost.ir/" xr:uid="{2B7FFCA6-C6E5-472A-8176-24A27E87CAC4}"/>
     <hyperlink ref="E72" r:id="rId44" display="http://domainsystem.ir/" xr:uid="{08228125-9E51-48A7-AE9E-90AF7DA24658}"/>
-    <hyperlink ref="E19" r:id="rId45" display="http://webtala.ir/" xr:uid="{C688C0DC-6574-4104-BE8B-48934607B6D9}"/>
-    <hyperlink ref="E36" r:id="rId46" display="http://parsdev.ir/" xr:uid="{EEB067A0-ABD3-494F-B1F8-AB1D2DB9600D}"/>
-    <hyperlink ref="E39" r:id="rId47" display="http://nai.co.ir/" xr:uid="{F49436E2-6125-4A64-A472-B3EE5EDCEC04}"/>
-    <hyperlink ref="E50" r:id="rId48" display="http://www.neda.ir/" xr:uid="{1CB16D83-D814-445B-9453-10D54226A5A6}"/>
+    <hyperlink ref="E28" r:id="rId45" display="http://webtala.ir/" xr:uid="{C688C0DC-6574-4104-BE8B-48934607B6D9}"/>
+    <hyperlink ref="E48" r:id="rId46" display="http://parsdev.ir/" xr:uid="{EEB067A0-ABD3-494F-B1F8-AB1D2DB9600D}"/>
+    <hyperlink ref="E12" r:id="rId47" display="http://nai.co.ir/" xr:uid="{F49436E2-6125-4A64-A472-B3EE5EDCEC04}"/>
+    <hyperlink ref="E42" r:id="rId48" display="http://www.neda.ir/" xr:uid="{1CB16D83-D814-445B-9453-10D54226A5A6}"/>
     <hyperlink ref="E73" r:id="rId49" display="http://damaneh.ir/" xr:uid="{D3A00297-D3BE-44D6-9B55-8D89EC15957C}"/>
-    <hyperlink ref="E35" r:id="rId50" display="http://hostiran.ir/" xr:uid="{E756F6DA-9476-403F-9285-6371E94E3909}"/>
-    <hyperlink ref="E20" r:id="rId51" display="http://digibarkhat.ir/" xr:uid="{3926762E-5C8C-4326-9F3A-B44F80724952}"/>
-    <hyperlink ref="E21" r:id="rId52" display="http://mynet.ir/" xr:uid="{B83BCD81-4680-4892-BB47-953FC06D13F2}"/>
-    <hyperlink ref="E26" r:id="rId53" display="http://parsdata.ir/" xr:uid="{5B23869E-1282-4A40-9257-8EB66EA46C3A}"/>
-    <hyperlink ref="E32" r:id="rId54" display="http://parspack.ir/" xr:uid="{4E7E63F9-14B6-4C27-AB71-C7157F0D4655}"/>
-    <hyperlink ref="E45" r:id="rId55" display="http://www.bertina.ir/" xr:uid="{A8317657-D204-49D8-AAC1-469C2B67812C}"/>
-    <hyperlink ref="E47" r:id="rId56" display="http://persiantools.ir/" xr:uid="{49CFCF96-03A7-4BD9-A758-DCF284E5099C}"/>
-    <hyperlink ref="E43" r:id="rId57" xr:uid="{9418F2A7-642D-4D3D-BF56-C8FD117E5D5E}"/>
-    <hyperlink ref="E3" r:id="rId58" display="http://pouyasazan.ir/" xr:uid="{65949951-4302-4DA0-ACE7-C7E187F9A68A}"/>
-    <hyperlink ref="E12" r:id="rId59" display="http://talahost.ir/" xr:uid="{EB48832B-02C4-4B9C-921D-EE3D1396F1A0}"/>
-    <hyperlink ref="E40" r:id="rId60" display="http://raadcom.ir/" xr:uid="{6FB2E297-DE78-40AE-903A-4A0FE27F4D5C}"/>
+    <hyperlink ref="E19" r:id="rId50" display="http://hostiran.ir/" xr:uid="{E756F6DA-9476-403F-9285-6371E94E3909}"/>
+    <hyperlink ref="E29" r:id="rId51" display="http://digibarkhat.ir/" xr:uid="{3926762E-5C8C-4326-9F3A-B44F80724952}"/>
+    <hyperlink ref="E30" r:id="rId52" display="http://mynet.ir/" xr:uid="{B83BCD81-4680-4892-BB47-953FC06D13F2}"/>
+    <hyperlink ref="E50" r:id="rId53" display="http://parsdata.ir/" xr:uid="{5B23869E-1282-4A40-9257-8EB66EA46C3A}"/>
+    <hyperlink ref="E5" r:id="rId54" display="http://parspack.ir/" xr:uid="{4E7E63F9-14B6-4C27-AB71-C7157F0D4655}"/>
+    <hyperlink ref="E39" r:id="rId55" display="http://www.bertina.ir/" xr:uid="{A8317657-D204-49D8-AAC1-469C2B67812C}"/>
+    <hyperlink ref="E49" r:id="rId56" display="http://persiantools.ir/" xr:uid="{49CFCF96-03A7-4BD9-A758-DCF284E5099C}"/>
+    <hyperlink ref="E37" r:id="rId57" xr:uid="{9418F2A7-642D-4D3D-BF56-C8FD117E5D5E}"/>
+    <hyperlink ref="E22" r:id="rId58" display="http://pouyasazan.ir/" xr:uid="{65949951-4302-4DA0-ACE7-C7E187F9A68A}"/>
+    <hyperlink ref="E21" r:id="rId59" display="http://talahost.ir/" xr:uid="{EB48832B-02C4-4B9C-921D-EE3D1396F1A0}"/>
+    <hyperlink ref="E13" r:id="rId60" display="http://raadcom.ir/" xr:uid="{6FB2E297-DE78-40AE-903A-4A0FE27F4D5C}"/>
     <hyperlink ref="E74" r:id="rId61" display="http://domains.ir/" xr:uid="{44DB414F-EBDB-4FBB-931A-5E483BCE6EDD}"/>
-    <hyperlink ref="E22" r:id="rId62" display="http://www.reseller24.ir/" xr:uid="{FE666B60-C95A-4DCF-9009-12BCC613E0C8}"/>
+    <hyperlink ref="E31" r:id="rId62" display="http://www.reseller24.ir/" xr:uid="{FE666B60-C95A-4DCF-9009-12BCC613E0C8}"/>
     <hyperlink ref="E75" r:id="rId63" display="http://domaino.ir/" xr:uid="{69CDFED6-ED1E-485A-BB87-41195BB19888}"/>
     <hyperlink ref="E76" r:id="rId64" xr:uid="{2871766B-EA96-4074-8900-AA99294A6077}"/>
     <hyperlink ref="E77" r:id="rId65" display="http://listip.ir/" xr:uid="{B5E630B1-5B2E-4967-9E75-8CA5A78B4A05}"/>
-    <hyperlink ref="E4" r:id="rId66" display="http://domain123.ir/" xr:uid="{EAFF5C2A-5567-4AAA-80FA-B7ABEDE8D0B5}"/>
-    <hyperlink ref="E28" r:id="rId67" display="http://sindad.co.ir/" xr:uid="{1D4D80E0-6D27-4D6D-A17D-A20E459C3EEB}"/>
-    <hyperlink ref="E41" r:id="rId68" display="http://webalfa.ir/" xr:uid="{8C726219-8E75-4EBD-89A0-9521A89FFEB2}"/>
-    <hyperlink ref="E44" r:id="rId69" display="http://server.ir/" xr:uid="{2772F217-9F85-41A7-B49E-6C4F41322129}"/>
-    <hyperlink ref="E49" r:id="rId70" display="http://www.ebnetway.ir/" xr:uid="{DE49B67A-0FB1-4721-AC37-AF35491F0505}"/>
-    <hyperlink ref="E42" r:id="rId71" display="http://hostida.ir/" xr:uid="{F6421A53-5639-46D6-92B3-634ED9196851}"/>
-    <hyperlink ref="E23" r:id="rId72" display="http://ariodata.ir/" xr:uid="{2DF8D1CF-5516-4608-BCA4-B6EAFC6BA7CB}"/>
-    <hyperlink ref="E9" r:id="rId73" display="http://mihannic.ir/" xr:uid="{410A5A61-6B29-4E96-875A-F1F878843F89}"/>
+    <hyperlink ref="E9" r:id="rId66" display="http://domain123.ir/" xr:uid="{EAFF5C2A-5567-4AAA-80FA-B7ABEDE8D0B5}"/>
+    <hyperlink ref="E33" r:id="rId67" display="http://sindad.co.ir/" xr:uid="{1D4D80E0-6D27-4D6D-A17D-A20E459C3EEB}"/>
+    <hyperlink ref="E20" r:id="rId68" display="http://webalfa.ir/" xr:uid="{8C726219-8E75-4EBD-89A0-9521A89FFEB2}"/>
+    <hyperlink ref="E38" r:id="rId69" display="http://server.ir/" xr:uid="{2772F217-9F85-41A7-B49E-6C4F41322129}"/>
+    <hyperlink ref="E52" r:id="rId70" display="http://www.ebnetway.ir/" xr:uid="{DE49B67A-0FB1-4721-AC37-AF35491F0505}"/>
+    <hyperlink ref="E6" r:id="rId71" display="http://hostida.ir/" xr:uid="{F6421A53-5639-46D6-92B3-634ED9196851}"/>
+    <hyperlink ref="E32" r:id="rId72" display="http://ariodata.ir/" xr:uid="{2DF8D1CF-5516-4608-BCA4-B6EAFC6BA7CB}"/>
+    <hyperlink ref="E17" r:id="rId73" display="http://mihannic.ir/" xr:uid="{410A5A61-6B29-4E96-875A-F1F878843F89}"/>
     <hyperlink ref="E78" r:id="rId74" display="http://registrar.ir/" xr:uid="{3A32D409-B873-4CF5-91E3-222729A23665}"/>
-    <hyperlink ref="E8" r:id="rId75" display="http://hannoverit.ir/" xr:uid="{9D3586AA-7FE3-440A-B9C6-F810A49D5C29}"/>
+    <hyperlink ref="E44" r:id="rId75" display="http://hannoverit.ir/" xr:uid="{9D3586AA-7FE3-440A-B9C6-F810A49D5C29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>

--- a/business/domain/domain-irnic-price-compare-list.xlsx
+++ b/business/domain/domain-irnic-price-compare-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\domain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8034A8-21A9-4376-A392-CE67F8E3436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0FCC9B-9974-41CE-9A81-4D42D883A4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{656E8D54-B9ED-4B19-91BC-7A9F1ADCF6AA}"/>
   </bookViews>
@@ -6437,7 +6437,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/business/domain/domain-irnic-price-compare-list.xlsx
+++ b/business/domain/domain-irnic-price-compare-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\domain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Programming\talambar_cdn\business\domain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0FCC9B-9974-41CE-9A81-4D42D883A4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8481652A-ECA3-48E9-B2AE-16B9BBD6CD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{656E8D54-B9ED-4B19-91BC-7A9F1ADCF6AA}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13020" xr2:uid="{656E8D54-B9ED-4B19-91BC-7A9F1ADCF6AA}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="280">
   <si>
     <t>#</t>
   </si>
@@ -766,85 +766,106 @@
     <t>سایت بالا می‌آید ولی تعرفه‌ای وجود ندارد</t>
   </si>
   <si>
-    <t>دامنه‌ی آی‌آر برای فروش نداشت</t>
-  </si>
-  <si>
     <t>دامنه‌ی دات‌کام ۴۴ هزار تومان تخفیف دارد</t>
   </si>
   <si>
+    <t>دامنه آی‌آر ۱ ساله قیمت اولیه ۱۵۶۰۰ تومان، ۵ ساله قیمت اولیه ۴۷۰۰۰ تومان، دامنه‌ی دات‌کام ۳۶۵۶۶۰ تومان</t>
+  </si>
+  <si>
+    <t>فقط فروش دامنه‌ی آی آر و صفحه‌ی سایت تکراری می‌باشد</t>
+  </si>
+  <si>
+    <t>آخرین بروزرسانی ۱۶ فروردین ۱۴۰۱</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات‌کام برای فروش ندارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی آی‌آر ۵ ساله برای فروش وجود ندارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات‌کام برای فروش وجود ندارد و صفحه‌ی سایت تکراری می‌باشد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات‌کام برای فروش ندارد و سایت تکراری است</t>
+  </si>
+  <si>
+    <t>دامنه‌ی آی‌آر ۵ ساله و دات‌کام برای فروش وجود ندارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ي آی‌آر ۵ ساله برای فروش وجود ندارد</t>
+  </si>
+  <si>
+    <t>دامنه آی‌آر ۱ ساله ۳۱۰۰ تومان و دات‌کام 55000 تومان تخفیف دارد و دامنه آی‌آر ۵ ساله برای فروش ندارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات آی‌آر ۵ ساله و دات‌کام برای فروش ندارد</t>
+  </si>
+  <si>
+    <t>این نماینده در تاریخ ۱۴۰۱/۱/۱۴ فعالیتش به پایان رسید</t>
+  </si>
+  <si>
+    <t>دامنه دات کام ۱۰۰۰۰ تخفیف و دامنه دات آی‌آر ۵ ساله برای فروش ندارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات آی‌آر ۵ ساله برای فروش ندارد</t>
+  </si>
+  <si>
+    <t>بروزرسانی سایت قدیمی است</t>
+  </si>
+  <si>
+    <t>دامنه دات آی‌آر ۱ ساله ۸۱۰۰، دات‌کام ۲۰۰۰۰ تومان تخفیف دارد و دامنه دات آی‌آر ۵ ساله برای فروش وجود ندارد</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات آی‌آر ۱ ساله ۹۰۰۰ تومان، دات آی‌آر ۵ ساله ۱۱۰۰۰ تومان، دات‌کام ۱۰۰۰۰ تومان تخفیف دارد</t>
+  </si>
+  <si>
+    <t>خطای دی ان اس</t>
+  </si>
+  <si>
+    <t>این حساب به حالت تعلیق درآمده است</t>
+  </si>
+  <si>
+    <t>سایت تکراری</t>
+  </si>
+  <si>
+    <t>خطای ۴۰۴</t>
+  </si>
+  <si>
+    <t>تغییر کرده و فروش دامنه ندارد Rasm.io نام دامنه‌ی این نماینده به</t>
+  </si>
+  <si>
+    <t>است و سایت تکراری می‌باشد Kps.co.ir نام دامنه‌ی این نماینده</t>
+  </si>
+  <si>
+    <t>تغییر کرده است ouriran.com نام دامنه‌ی این نماینده به</t>
+  </si>
+  <si>
+    <t>تغییر کرده است saba.host نام دامنه‌ی این نماینده به</t>
+  </si>
+  <si>
+    <t>کد تشخیص هویت کار نمی‌کند و نمی‌توان دامنه‌ای ثبت کرد و قیمت‌ وارد شده بروزرسانی نشده است</t>
+  </si>
+  <si>
+    <t>13.75$</t>
+  </si>
+  <si>
+    <t>دامنه‌ی دات کام به دلار به‌فروش می‌رسد</t>
+  </si>
+  <si>
+    <t>صفحه تعرفه‌ها دارد ولی هیچ تعرفه‌ای وجود ندارد. تایید ایمیل ارسال نمی‌شود</t>
+  </si>
+  <si>
+    <t>تعرفه‌ای وجود ندارد</t>
+  </si>
+  <si>
+    <t>صفحه‌ی اول سایت لاگ‌‌این بود ولی بعد از لاگ‌این سایت بالا نمی‌آمد و سایت تکراری</t>
+  </si>
+  <si>
+    <t>دامنه‌ی آی‌آر 5 ساله برای فروش ندارد</t>
+  </si>
+  <si>
     <t>دامنه‌ی دات‌کام ۶۰ هزار تومان تخفیف دارد</t>
-  </si>
-  <si>
-    <t>دامنه آی‌آر ۱ ساله قیمت اولیه ۱۵۶۰۰ تومان، ۵ ساله قیمت اولیه ۴۷۰۰۰ تومان، دامنه‌ی دات‌کام ۳۶۵۶۶۰ تومان</t>
-  </si>
-  <si>
-    <t>سایت بالا نمی‌آمد</t>
-  </si>
-  <si>
-    <t>صفحه‌ی اول سایت لاگ‌‌این بود ولی بعد از لاگ‌این بالا نمی‌آمد</t>
-  </si>
-  <si>
-    <t>فقط فروش دامنه‌ی آی آر و صفحه‌ی سایت تکراری می‌باشد</t>
-  </si>
-  <si>
-    <t>آخرین بروزرسانی ۱۶ فروردین ۱۴۰۱</t>
-  </si>
-  <si>
-    <t>آدرس آی‌پی تغییر کرده</t>
-  </si>
-  <si>
-    <t>دامنه‌ی دات‌کام برای فروش ندارد</t>
-  </si>
-  <si>
-    <t>دامنه‌ی آی‌آر ۵ ساله برای فروش وجود ندارد</t>
-  </si>
-  <si>
-    <t>دامنه‌ی دات‌کام برای فروش وجود ندارد و صفحه‌ی سایت تکراری می‌باشد</t>
-  </si>
-  <si>
-    <t>دامنه‌ی دات‌کام برای فروش ندارد و سایت تکراری است</t>
-  </si>
-  <si>
-    <t>دامنه‌ی آی‌آر ۵ ساله و دات‌کام برای فروش وجود ندارد</t>
-  </si>
-  <si>
-    <t>دامنه‌ي آی‌آر ۵ ساله برای فروش وجود ندارد</t>
-  </si>
-  <si>
-    <t>دامنه آی‌آر ۱ ساله ۳۱۰۰ تومان و دات‌کام 55000 تومان تخفیف دارد و دامنه آی‌آر ۵ ساله برای فروش ندارد</t>
-  </si>
-  <si>
-    <t>دامنه‌ی دات آی‌آر ۵ ساله و دات‌کام برای فروش ندارد</t>
-  </si>
-  <si>
-    <t>این نماینده در تاریخ ۱۴۰۱/۱/۱۴ فعالیتش به پایان رسید</t>
-  </si>
-  <si>
-    <t>دامنه دات کام ۱۰۰۰۰ تخفیف و دامنه دات آی‌آر ۵ ساله برای فروش ندارد</t>
-  </si>
-  <si>
-    <t>سرویس فروش دامنه قطع شده‌است</t>
-  </si>
-  <si>
-    <t>صفحه‌ی اول سایت لاگ‌‌این بود ولی بعد از لاگ‌این سایت بالا نمی‌آمد</t>
-  </si>
-  <si>
-    <t>دامنه‌ای برای فروش ندارد</t>
-  </si>
-  <si>
-    <t>سایتی با این نام وجود ندارد</t>
-  </si>
-  <si>
-    <t>دامنه‌ی دات آی‌آر ۵ ساله برای فروش ندارد</t>
-  </si>
-  <si>
-    <t>بروزرسانی سایت قدیمی است</t>
-  </si>
-  <si>
-    <t>دامنه دات آی‌آر ۱ ساله ۸۱۰۰، دات‌کام ۲۰۰۰۰ تومان تخفیف دارد و دامنه دات آی‌آر ۵ ساله برای فروش وجود ندارد</t>
-  </si>
-  <si>
-    <t>دامنه‌ی دات آی‌آر ۱ ساله ۹۰۰۰ تومان، دات آی‌آر ۵ ساله ۱۱۰۰۰ تومان، دات‌کام ۱۰۰۰۰ تومان تخفیف دارد</t>
   </si>
 </sst>
 </file>
@@ -855,7 +876,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,19 +924,18 @@
       <name val="Dana"/>
       <charset val="178"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Dana"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -981,7 +1001,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1042,35 +1062,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1114,7 +1110,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -1405,13 +1401,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1466,13 +1462,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1527,13 +1523,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1588,13 +1584,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1649,13 +1645,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1710,13 +1706,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1771,13 +1767,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1832,13 +1828,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1893,13 +1889,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1954,13 +1950,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2015,13 +2011,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2076,13 +2072,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2137,13 +2133,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2198,13 +2194,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2259,13 +2255,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2320,13 +2316,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2381,13 +2377,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2442,13 +2438,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2503,13 +2499,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2564,13 +2560,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2625,13 +2621,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2686,13 +2682,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2747,13 +2743,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2808,13 +2804,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2869,13 +2865,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2930,13 +2926,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2991,13 +2987,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3052,13 +3048,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3113,13 +3109,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3174,13 +3170,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3235,13 +3231,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3296,13 +3292,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3357,13 +3353,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3418,13 +3414,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3479,13 +3475,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3540,13 +3536,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3601,13 +3597,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3662,13 +3658,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3723,13 +3719,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3784,13 +3780,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3845,13 +3841,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3906,13 +3902,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3967,13 +3963,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4028,13 +4024,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4089,13 +4085,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4150,13 +4146,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4211,13 +4207,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4272,13 +4268,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4333,13 +4329,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4394,13 +4390,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4455,13 +4451,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4516,13 +4512,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4577,13 +4573,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4638,13 +4634,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4699,13 +4695,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4760,13 +4756,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4821,13 +4817,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4882,13 +4878,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4943,13 +4939,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5004,13 +5000,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5065,13 +5061,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5126,13 +5122,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5187,13 +5183,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5248,13 +5244,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5309,13 +5305,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5370,13 +5366,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5431,13 +5427,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5492,13 +5488,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5553,13 +5549,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5614,13 +5610,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5675,13 +5671,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5736,13 +5732,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5797,13 +5793,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5858,13 +5854,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5919,13 +5915,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5980,13 +5976,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6041,13 +6037,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6105,9 +6101,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{548BE326-327C-454C-ACE6-EB8CB003DD8D}" name="Table1" displayName="Table1" ref="A1:J78" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:J78" xr:uid="{548BE326-327C-454C-ACE6-EB8CB003DD8D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J78">
-    <sortCondition ref="G2:G78"/>
-    <sortCondition ref="H2:H78"/>
-    <sortCondition ref="I2:I78"/>
+    <sortCondition ref="F1:F78"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{2A23BA31-9B49-4E05-BE22-9FA47E3CF962}" name="#" dataDxfId="12"/>
@@ -6436,21 +6430,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B09669C-DC32-412C-96EB-9A29D963BFE0}">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" customWidth="1"/>
     <col min="10" max="10" width="85.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -6493,174 +6487,174 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24">
-        <v>35</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="29">
-        <v>10</v>
-      </c>
-      <c r="G2" s="30">
-        <v>12000</v>
-      </c>
-      <c r="H2" s="30">
-        <v>36000</v>
-      </c>
-      <c r="I2" s="30">
-        <v>299000</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>244</v>
+      <c r="A2" s="12">
+        <v>8</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="7" t="s">
-        <v>131</v>
+      <c r="E3" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="F3" s="18">
-        <v>10</v>
-      </c>
-      <c r="G3" s="15">
-        <v>12000</v>
-      </c>
-      <c r="H3" s="15">
-        <v>36000</v>
-      </c>
-      <c r="I3" s="15">
-        <v>316008</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>244</v>
+        <v>0</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F4" s="18">
-        <v>10</v>
-      </c>
-      <c r="G4" s="15">
-        <v>12000</v>
-      </c>
-      <c r="H4" s="15">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="F5" s="18">
-        <v>10</v>
-      </c>
-      <c r="G5" s="15">
-        <v>12000</v>
+        <v>0</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I5" s="15">
-        <v>291000</v>
+      <c r="I5" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="7" t="s">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="F6" s="18">
-        <v>10</v>
-      </c>
-      <c r="G6" s="15">
-        <v>12000</v>
+        <v>5</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I6" s="15">
-        <v>335000</v>
+      <c r="I6" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="7" t="s">
-        <v>45</v>
+      <c r="E7" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="F7" s="18">
-        <v>10</v>
-      </c>
-      <c r="G7" s="15">
-        <v>12000</v>
+        <v>5</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>244</v>
@@ -6669,532 +6663,530 @@
         <v>244</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="F8" s="18">
-        <v>10</v>
-      </c>
-      <c r="G8" s="15">
-        <v>12900</v>
+        <v>5</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I8" s="15">
-        <v>315000</v>
+      <c r="I8" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="7" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="F9" s="18">
-        <v>10</v>
-      </c>
-      <c r="G9" s="15">
-        <v>13200</v>
-      </c>
-      <c r="H9" s="15">
-        <v>39600</v>
+        <v>5</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="F10" s="18">
-        <v>10</v>
-      </c>
-      <c r="G10" s="15">
-        <v>13900</v>
-      </c>
-      <c r="H10" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I10" s="15">
-        <v>338000</v>
+        <v>5</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="7" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="F11" s="18">
-        <v>10</v>
-      </c>
-      <c r="G11" s="15">
-        <v>14000</v>
-      </c>
-      <c r="H11" s="15">
-        <v>42000</v>
+        <v>5</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="7" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="F12" s="18">
-        <v>10</v>
-      </c>
-      <c r="G12" s="15">
-        <v>14000</v>
+        <v>5</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I12" s="15">
-        <v>319000</v>
+      <c r="I12" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="F13" s="18">
         <v>10</v>
       </c>
       <c r="G13" s="15">
-        <v>14000</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I13" s="15">
-        <v>319000</v>
+        <v>16000</v>
+      </c>
+      <c r="H13" s="15">
+        <v>48000</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="F14" s="18">
         <v>10</v>
       </c>
       <c r="G14" s="15">
-        <v>14900</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I14" s="15">
-        <v>295000</v>
+        <v>24000</v>
+      </c>
+      <c r="H14" s="15">
+        <v>60000</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="7" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="F15" s="18">
         <v>10</v>
       </c>
       <c r="G15" s="15">
-        <v>14940</v>
-      </c>
-      <c r="H15" s="15">
-        <v>45750</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>244</v>
+        <v>15000</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" s="15">
+        <v>330000</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="7" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="F16" s="18">
         <v>10</v>
       </c>
       <c r="G16" s="15">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="H16" s="15">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c r="F17" s="18">
         <v>10</v>
       </c>
       <c r="G17" s="15">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="H17" s="15">
-        <v>45000</v>
-      </c>
-      <c r="I17" s="15">
-        <v>365000</v>
+        <v>60000</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F18" s="18">
         <v>10</v>
       </c>
       <c r="G18" s="15">
-        <v>15000</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I18" s="15">
-        <v>279000</v>
+        <v>24000</v>
+      </c>
+      <c r="H18" s="15">
+        <v>60000</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="7" t="s">
-        <v>158</v>
-      </c>
+      <c r="E19" s="8"/>
       <c r="F19" s="18">
         <v>10</v>
       </c>
       <c r="G19" s="15">
-        <v>15000</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I19" s="15">
-        <v>299000</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>256</v>
+        <v>24000</v>
+      </c>
+      <c r="H19" s="15">
+        <v>60000</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F20" s="18">
         <v>10</v>
       </c>
       <c r="G20" s="15">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I20" s="15">
-        <v>333000</v>
+        <v>389600</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="7" t="s">
-        <v>185</v>
+      <c r="E21" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="F21" s="18">
         <v>10</v>
       </c>
       <c r="G21" s="15">
-        <v>15800</v>
-      </c>
-      <c r="H21" s="15">
-        <v>47400</v>
+        <v>15000</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I21" s="15">
-        <v>285700</v>
+        <v>269000</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="F22" s="18">
         <v>10</v>
       </c>
       <c r="G22" s="15">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="H22" s="15">
-        <v>36000</v>
-      </c>
-      <c r="I22" s="15">
-        <v>339000</v>
+        <v>60000</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="7" t="s">
-        <v>39</v>
+      <c r="E23" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="F23" s="18">
         <v>10</v>
       </c>
       <c r="G23" s="15">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="H23" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I23" s="15">
-        <v>0</v>
+        <v>60000</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="7" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F24" s="18">
         <v>10</v>
       </c>
       <c r="G24" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H24" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I24" s="15">
-        <v>365000</v>
+        <v>20000</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="F25" s="18">
         <v>10</v>
@@ -7203,56 +7195,58 @@
         <v>16000</v>
       </c>
       <c r="H25" s="15">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="F26" s="18">
         <v>10</v>
       </c>
       <c r="G26" s="15">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="H26" s="15">
-        <v>48000</v>
+        <v>60000</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="7" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="F27" s="18">
         <v>10</v>
@@ -7267,23 +7261,21 @@
         <v>244</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="E28" s="8"/>
       <c r="F28" s="18">
         <v>10</v>
       </c>
@@ -7297,22 +7289,22 @@
         <v>244</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>10</v>
@@ -7320,29 +7312,29 @@
       <c r="G29" s="15">
         <v>16000</v>
       </c>
-      <c r="H29" s="15">
-        <v>48000</v>
+      <c r="H29" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="7" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="F30" s="18">
         <v>10</v>
@@ -7350,59 +7342,59 @@
       <c r="G30" s="15">
         <v>16000</v>
       </c>
-      <c r="H30" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>244</v>
+      <c r="H30" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I30" s="15">
+        <v>285000</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="7" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="F31" s="18">
         <v>10</v>
       </c>
       <c r="G31" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H31" s="15">
-        <v>48000</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>244</v>
+        <v>12900</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I31" s="15">
+        <v>315000</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>222</v>
+        <v>37</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="F32" s="18">
         <v>10</v>
@@ -7413,86 +7405,86 @@
       <c r="H32" s="15">
         <v>48000</v>
       </c>
-      <c r="I32" s="15" t="s">
-        <v>244</v>
+      <c r="I32" s="15">
+        <v>0</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="7" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="F33" s="18">
         <v>10</v>
       </c>
       <c r="G33" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>244</v>
+        <v>13900</v>
+      </c>
+      <c r="H33" s="15">
+        <v>48000</v>
       </c>
       <c r="I33" s="15">
-        <v>255000</v>
+        <v>338000</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F34" s="18">
         <v>10</v>
       </c>
       <c r="G34" s="15">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I34" s="15">
-        <v>285000</v>
+      <c r="I34" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="F35" s="18">
         <v>10</v>
@@ -7504,85 +7496,85 @@
         <v>244</v>
       </c>
       <c r="I35" s="15">
-        <v>298000</v>
+        <v>395000</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F36" s="18">
         <v>10</v>
       </c>
       <c r="G36" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I36" s="15">
-        <v>310000</v>
+        <v>37000</v>
+      </c>
+      <c r="H36" s="15">
+        <v>112000</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="21" t="s">
-        <v>179</v>
+      <c r="E37" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="F37" s="18">
         <v>10</v>
       </c>
       <c r="G37" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>244</v>
+        <v>19000</v>
+      </c>
+      <c r="H37" s="15">
+        <v>57000</v>
       </c>
       <c r="I37" s="15">
-        <v>340380</v>
+        <v>348000</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="7" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="F38" s="18">
         <v>10</v>
@@ -7590,89 +7582,89 @@
       <c r="G38" s="15">
         <v>16000</v>
       </c>
-      <c r="H38" s="15" t="s">
-        <v>244</v>
+      <c r="H38" s="15">
+        <v>48000</v>
       </c>
       <c r="I38" s="15">
-        <v>348000</v>
+        <v>365000</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="7" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="F39" s="18">
         <v>10</v>
       </c>
       <c r="G39" s="15">
-        <v>16000</v>
+        <v>16900</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I39" s="15">
-        <v>362000</v>
+        <v>279000</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="7" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="F40" s="18">
         <v>10</v>
       </c>
       <c r="G40" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I40" s="15">
-        <v>380000</v>
+        <v>14940</v>
+      </c>
+      <c r="H40" s="15">
+        <v>45750</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="7" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F41" s="18">
         <v>10</v>
@@ -7684,67 +7676,67 @@
         <v>244</v>
       </c>
       <c r="I41" s="15">
-        <v>395000</v>
+        <v>298000</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="7" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="F42" s="18">
         <v>10</v>
       </c>
       <c r="G42" s="15">
-        <v>16000</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I42" s="15">
-        <v>421200</v>
+        <v>12000</v>
+      </c>
+      <c r="H42" s="15">
+        <v>45000</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="7" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="F43" s="18">
         <v>10</v>
       </c>
       <c r="G43" s="15">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="H43" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I43" s="15" t="s">
-        <v>244</v>
+      <c r="I43" s="15">
+        <v>279000</v>
       </c>
       <c r="J43" s="19" t="s">
         <v>259</v>
@@ -7752,89 +7744,89 @@
     </row>
     <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
-        <v>77</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D44" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="7" t="s">
-        <v>233</v>
+        <v>90</v>
       </c>
       <c r="F44" s="18">
         <v>10</v>
       </c>
       <c r="G44" s="15">
-        <v>16500</v>
-      </c>
-      <c r="H44" s="15">
-        <v>44000</v>
+        <v>14900</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="I44" s="15">
-        <v>268000</v>
+        <v>295000</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F45" s="18">
         <v>10</v>
       </c>
       <c r="G45" s="15">
-        <v>16900</v>
+        <v>16000</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>244</v>
       </c>
       <c r="I45" s="15">
-        <v>279000</v>
+        <v>310000</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="7" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F46" s="18">
         <v>10</v>
       </c>
       <c r="G46" s="15">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="H46" s="15">
-        <v>57000</v>
+        <v>42000</v>
       </c>
       <c r="I46" s="15">
-        <v>348000</v>
+        <v>318000</v>
       </c>
       <c r="J46" s="19" t="s">
         <v>244</v>
@@ -7842,206 +7834,206 @@
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="12">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F47" s="18">
         <v>10</v>
       </c>
       <c r="G47" s="15">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="H47" s="15">
-        <v>60000</v>
+        <v>42000</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="7" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="F48" s="18">
         <v>10</v>
       </c>
       <c r="G48" s="15">
-        <v>25000</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I48" s="15">
-        <v>299000</v>
+        <v>24000</v>
+      </c>
+      <c r="H48" s="15">
+        <v>60000</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="12">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="7" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="F49" s="18">
         <v>10</v>
       </c>
       <c r="G49" s="15">
-        <v>25000</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I49" s="15">
-        <v>390000</v>
+        <v>15000</v>
+      </c>
+      <c r="H49" s="15">
+        <v>40000</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="12">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="7" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="F50" s="18">
         <v>10</v>
       </c>
-      <c r="G50" s="15">
-        <v>26000</v>
-      </c>
-      <c r="H50" s="15">
-        <v>95000</v>
-      </c>
-      <c r="I50" s="15">
-        <v>395000</v>
+      <c r="G50" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="7" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F51" s="18">
         <v>10</v>
       </c>
       <c r="G51" s="15">
-        <v>37000</v>
-      </c>
-      <c r="H51" s="15">
-        <v>112000</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>244</v>
+        <v>16000</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I51" s="15">
+        <v>380000</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="12">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="7" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="F52" s="18">
         <v>10</v>
       </c>
-      <c r="G52" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>244</v>
+      <c r="G52" s="15">
+        <v>12000</v>
+      </c>
+      <c r="H52" s="15">
+        <v>36000</v>
       </c>
       <c r="I52" s="15">
-        <v>400000</v>
+        <v>316008</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="12">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="7" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="F53" s="18">
-        <v>5</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H53" s="15">
+        <v>48000</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>244</v>
@@ -8052,567 +8044,569 @@
     </row>
     <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="12">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="7" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="F54" s="18">
-        <v>0</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H54" s="15">
+        <v>48000</v>
       </c>
       <c r="I54" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="12">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="F55" s="18">
-        <v>0</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="15">
+        <v>25000</v>
       </c>
       <c r="H55" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I55" s="15" t="s">
-        <v>244</v>
+      <c r="I55" s="15">
+        <v>299000</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="12">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="7" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="F56" s="18">
-        <v>0</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="15">
+        <v>14000</v>
       </c>
       <c r="H56" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I56" s="15" t="s">
-        <v>244</v>
+      <c r="I56" s="15">
+        <v>319000</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="12">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="7" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="F57" s="18">
-        <v>0</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="15">
+        <v>16000</v>
       </c>
       <c r="H57" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I57" s="15" t="s">
-        <v>244</v>
+      <c r="I57" s="15">
+        <v>421200</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="12">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="7" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="F58" s="18">
-        <v>0</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="15">
+        <v>15000</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I58" s="15" t="s">
-        <v>244</v>
+      <c r="I58" s="15">
+        <v>299000</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="7" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="F59" s="18">
-        <v>0</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H59" s="15">
+        <v>48000</v>
       </c>
       <c r="I59" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="7" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="F60" s="18">
-        <v>0</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H60" s="15">
+        <v>48000</v>
       </c>
       <c r="I60" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="7" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="F61" s="18">
-        <v>5</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="15">
+        <v>26000</v>
+      </c>
+      <c r="H61" s="15">
+        <v>95000</v>
+      </c>
+      <c r="I61" s="15">
+        <v>395000</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="12">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="7" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="F62" s="18">
-        <v>0</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="15">
+        <v>12000</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I62" s="15" t="s">
-        <v>244</v>
+      <c r="I62" s="15">
+        <v>291000</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="12">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="7" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="F63" s="18">
-        <v>5</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="15">
+        <v>16000</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I63" s="15" t="s">
-        <v>244</v>
+      <c r="I63" s="15">
+        <v>362000</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="12">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="7" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="F64" s="18">
-        <v>0</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="15">
+        <v>25000</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I64" s="15" t="s">
-        <v>244</v>
+      <c r="I64" s="15">
+        <v>390000</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="12">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="7" t="s">
-        <v>99</v>
+      <c r="E65" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="F65" s="18">
-        <v>5</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="15">
+        <v>16000</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I65" s="15" t="s">
-        <v>244</v>
+      <c r="I65" s="15">
+        <v>340380</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="12">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="7" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="F66" s="18">
-        <v>5</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H66" s="15">
+        <v>36000</v>
+      </c>
+      <c r="I66" s="15">
+        <v>339000</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="12">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="7" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="F67" s="18">
-        <v>0</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="15">
+        <v>15800</v>
+      </c>
+      <c r="H67" s="15">
+        <v>47400</v>
+      </c>
+      <c r="I67" s="15">
+        <v>285700</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="12">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="8"/>
+      <c r="E68" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="F68" s="18">
-        <v>0</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="15">
+        <v>14000</v>
       </c>
       <c r="H68" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I68" s="15" t="s">
-        <v>244</v>
+      <c r="I68" s="15">
+        <v>319000</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="12">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="7" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="F69" s="18">
-        <v>5</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H69" s="15">
+        <v>48000</v>
       </c>
       <c r="I69" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="12">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="7" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="F70" s="18">
         <v>10</v>
       </c>
-      <c r="G70" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>244</v>
+      <c r="G70" s="15">
+        <v>14600</v>
+      </c>
+      <c r="H70" s="15">
+        <v>44000</v>
       </c>
       <c r="I70" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J70" s="19" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="12">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="7" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="F71" s="18">
-        <v>0</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="15">
+        <v>16000</v>
       </c>
       <c r="H71" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I71" s="15" t="s">
-        <v>244</v>
+      <c r="I71" s="15">
+        <v>255000</v>
       </c>
       <c r="J71" s="19" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="12">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="7" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="F72" s="18">
-        <v>5</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="15">
+        <v>15000</v>
       </c>
       <c r="H72" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I72" s="15" t="s">
-        <v>244</v>
+      <c r="I72" s="15">
+        <v>333000</v>
       </c>
       <c r="J72" s="19" t="s">
         <v>251</v>
@@ -8620,182 +8614,182 @@
     </row>
     <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="12">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="7" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="F73" s="18">
-        <v>5</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="15">
+        <v>24000</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I73" s="15" t="s">
-        <v>244</v>
+      <c r="I73" s="15">
+        <v>348000</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="12">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="7" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="F74" s="18">
-        <v>0</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="15">
+        <v>25000</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I74" s="15" t="s">
-        <v>244</v>
+      <c r="I74" s="15">
+        <v>400000</v>
       </c>
       <c r="J74" s="19" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="12">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="7" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="F75" s="18">
-        <v>5</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="15">
+        <v>12000</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I75" s="15" t="s">
-        <v>244</v>
+      <c r="I75" s="15">
+        <v>335000</v>
       </c>
       <c r="J75" s="19" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="12">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="D76" s="3"/>
-      <c r="E76" s="21" t="s">
-        <v>200</v>
+      <c r="E76" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="F76" s="18">
-        <v>0</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="15">
+        <v>16000</v>
+      </c>
+      <c r="H76" s="15">
+        <v>48000</v>
       </c>
       <c r="I76" s="15" t="s">
         <v>244</v>
       </c>
       <c r="J76" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="12">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="7" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="F77" s="18">
-        <v>0</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I77" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="15">
+        <v>15000</v>
+      </c>
+      <c r="H77" s="15">
+        <v>45000</v>
+      </c>
+      <c r="I77" s="15">
+        <v>365000</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F78" s="18">
-        <v>5</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I78" s="15" t="s">
-        <v>244</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="15">
+        <v>16500</v>
+      </c>
+      <c r="H78" s="15">
+        <v>44000</v>
+      </c>
+      <c r="I78" s="15">
+        <v>268000</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -8811,51 +8805,8 @@
       <c r="J79" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G41:G78">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{922FC569-2105-4F7A-B259-D2428B6A2B22}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H78">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I78">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F78">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G40">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="G2:G26">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8868,7 +8819,222 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H40">
+  <conditionalFormatting sqref="H2:H26">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I26">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F26">
+    <cfRule type="iconSet" priority="21">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65:G78">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BB907BF6-AB92-4F15-8079-1868AD617E3B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65:H78">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65:I78">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65:F78">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:G64">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BEE0C352-C6C5-4188-BACF-8B0932E9114A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:H64">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:I64">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50:F64">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41:G49">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A4C19004-808A-47C3-8BFE-8EF6FB118EE3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H49">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I49">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:F49">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:G40">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{937F457E-84F8-413B-8F46-BDE668427807}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H40">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I40">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F40">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G33">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C12426AF-35E9-497E-B0A7-653C3CD3CB65}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8878,7 +9044,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I40">
+  <conditionalFormatting sqref="I27:I33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8888,7 +9054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F40">
+  <conditionalFormatting sqref="F27:F33">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -8898,81 +9064,81 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E53" r:id="rId1" display="http://www.16000.ir/" xr:uid="{60F6C7EF-8C3D-4BFF-9BBB-2F2C4AC587A6}"/>
-    <hyperlink ref="E25" r:id="rId2" display="http://26666.ir/" xr:uid="{DE9D53E3-95F0-4D9B-B6B2-9352ADA2CD0C}"/>
-    <hyperlink ref="E54" r:id="rId3" display="http://resellernic.ir/" xr:uid="{AFA2B38F-2ECD-4340-AA6D-15E2645BDF9A}"/>
-    <hyperlink ref="E55" r:id="rId4" display="http://karena.ir/" xr:uid="{DE7E1E3E-7F35-45CF-9B5F-555F3705068B}"/>
-    <hyperlink ref="E56" r:id="rId5" display="http://parsianhost.ir/" xr:uid="{57E233EE-D4D6-4F38-AD4A-E1EB18481D80}"/>
-    <hyperlink ref="E43" r:id="rId6" display="http://sabtaddress.ir/" xr:uid="{62DCEF83-9646-4770-932B-B0B4F3E23D62}"/>
-    <hyperlink ref="E57" r:id="rId7" display="http://asanrayaan.ir/" xr:uid="{4B6D7C6B-1F7B-4FB7-87CB-8903298FC133}"/>
-    <hyperlink ref="E58" r:id="rId8" display="http://www.takweb.ir/" xr:uid="{6E9AB595-7B69-4F24-A573-D85DA685B6CC}"/>
-    <hyperlink ref="E34" r:id="rId9" display="http://azaronline.ir/" xr:uid="{43BC29A5-0E42-4531-AE09-7F4732BE29D1}"/>
-    <hyperlink ref="E8" r:id="rId10" display="http://azaranweb.ir/" xr:uid="{607BC151-E12A-458F-8D5B-BC9F8AAD221A}"/>
-    <hyperlink ref="E23" r:id="rId11" display="http://afradata.ir/" xr:uid="{3C911EA8-BB82-409C-AC81-4FDC2AAC94F1}"/>
-    <hyperlink ref="E10" r:id="rId12" display="http://noornet.ir/" xr:uid="{0F5F0D8C-6DD1-4D75-9A5B-3D811C7A774E}"/>
-    <hyperlink ref="E7" r:id="rId13" display="http://www.idehnic.ir/" xr:uid="{65904291-CEAB-4231-B22A-718FDFFBF80E}"/>
-    <hyperlink ref="E41" r:id="rId14" display="http://www.datamizban.ir/" xr:uid="{0B02D814-F570-4DD9-AF6E-6F5EEE9A1EAF}"/>
-    <hyperlink ref="E51" r:id="rId15" display="http://idehplus.ir/" xr:uid="{EAEF8EA5-DB84-437F-B9EC-D9A79D5B065D}"/>
-    <hyperlink ref="E46" r:id="rId16" display="http://irpowerweb.ir/" xr:uid="{A28B473B-90EF-4877-96CC-DBCDFEF3ECF5}"/>
-    <hyperlink ref="E24" r:id="rId17" display="http://www.day.ir/" xr:uid="{50C095C0-22B2-4C8D-A8C6-4B4CAC1D01EC}"/>
-    <hyperlink ref="E59" r:id="rId18" display="http://diyakoreseller.ir/" xr:uid="{B2156543-5519-4DAD-951D-D3E781C70E04}"/>
-    <hyperlink ref="E60" r:id="rId19" display="http://novinpadideh.ir/" xr:uid="{25D977BA-51E5-4887-A897-484D6C535BA1}"/>
-    <hyperlink ref="E61" r:id="rId20" display="http://www.resellerapi.ir/" xr:uid="{95418DD6-641A-438C-A757-0F99BC168A7E}"/>
-    <hyperlink ref="E45" r:id="rId21" display="http://webramz.ir/" xr:uid="{93DDDF5C-C105-4383-9553-2DF3E20DE0FE}"/>
-    <hyperlink ref="E15" r:id="rId22" display="http://niba.ir/" xr:uid="{8AE7F955-3195-4A31-82F3-10EEE842AD31}"/>
-    <hyperlink ref="E35" r:id="rId23" display="http://mihanwebhost.ir/" xr:uid="{77A2A763-FC4E-441C-89AB-89BD6A508209}"/>
-    <hyperlink ref="E62" r:id="rId24" display="http://parhamreg.ir/" xr:uid="{09ADAD7B-C9DB-441A-AC34-789B2C7552BD}"/>
-    <hyperlink ref="E4" r:id="rId25" display="http://www.domainbazan.ir/" xr:uid="{C35B0161-A008-4463-8E7E-2AFC74F3025A}"/>
-    <hyperlink ref="E18" r:id="rId26" display="http://spdomain.ir/" xr:uid="{51950BD9-48B8-431B-8D24-A761E4908C81}"/>
-    <hyperlink ref="E63" r:id="rId27" display="http://sellir.ir/" xr:uid="{EB639299-551D-466E-9CCC-4B2A160FD110}"/>
-    <hyperlink ref="E14" r:id="rId28" display="http://www.faraso.ir/" xr:uid="{5EABF44A-59FA-4C56-916D-0C553CC3EA61}"/>
-    <hyperlink ref="E36" r:id="rId29" display="http://karait.ir/" xr:uid="{1494D3C1-8D6B-4579-9D11-3CA3D6454427}"/>
-    <hyperlink ref="E64" r:id="rId30" display="http://resellha.ir/" xr:uid="{2931D0D2-39A8-421A-AE99-9917321A4D5F}"/>
-    <hyperlink ref="E65" r:id="rId31" display="http://nickname.ir/" xr:uid="{A94D832F-1783-42FC-AEB4-388F6BB7C1EF}"/>
-    <hyperlink ref="E66" r:id="rId32" display="http://greenweb.ir/" xr:uid="{06F2DD3F-EF97-409C-85E9-EA8D1D30F27D}"/>
-    <hyperlink ref="E67" r:id="rId33" display="http://iranhost.ir/" xr:uid="{8AF585C4-0284-414F-9381-8FEE559DC380}"/>
-    <hyperlink ref="E2" r:id="rId34" display="http://jibres.ir/" xr:uid="{D6020873-348A-42CB-A4FA-E32564DEE34B}"/>
-    <hyperlink ref="E11" r:id="rId35" display="http://selva.ir/" xr:uid="{0349AAC3-FE52-4F76-A228-8F7A4A582FE0}"/>
-    <hyperlink ref="E69" r:id="rId36" display="http://basiscore.ir/" xr:uid="{03F0C379-8C93-41F2-BFD6-F0FB750439E9}"/>
-    <hyperlink ref="E47" r:id="rId37" display="http://www.takami.ir/" xr:uid="{3F100193-9340-4BD3-9EDB-DEF890D52088}"/>
-    <hyperlink ref="E16" r:id="rId38" display="http://hostpa.ir/" xr:uid="{7E21348B-648B-419F-8DD3-A24F499A278B}"/>
-    <hyperlink ref="E70" r:id="rId39" display="http://meitsgroup.ir/" xr:uid="{C7715FA2-865B-49D4-A8F2-84E09237B389}"/>
-    <hyperlink ref="E40" r:id="rId40" display="http://mizban.ir/" xr:uid="{394551FD-A1F0-479E-A9C4-01317B54327E}"/>
-    <hyperlink ref="E3" r:id="rId41" display="http://onlineserver.ir/" xr:uid="{627A8E10-EBBA-498D-9530-B623A0886FA3}"/>
-    <hyperlink ref="E27" r:id="rId42" display="http://mibonet.ir/" xr:uid="{25EA0027-A873-492D-AB73-A7C8345096EB}"/>
-    <hyperlink ref="E71" r:id="rId43" display="http://morvahost.ir/" xr:uid="{2B7FFCA6-C6E5-472A-8176-24A27E87CAC4}"/>
-    <hyperlink ref="E72" r:id="rId44" display="http://domainsystem.ir/" xr:uid="{08228125-9E51-48A7-AE9E-90AF7DA24658}"/>
-    <hyperlink ref="E28" r:id="rId45" display="http://webtala.ir/" xr:uid="{C688C0DC-6574-4104-BE8B-48934607B6D9}"/>
-    <hyperlink ref="E48" r:id="rId46" display="http://parsdev.ir/" xr:uid="{EEB067A0-ABD3-494F-B1F8-AB1D2DB9600D}"/>
-    <hyperlink ref="E12" r:id="rId47" display="http://nai.co.ir/" xr:uid="{F49436E2-6125-4A64-A472-B3EE5EDCEC04}"/>
-    <hyperlink ref="E42" r:id="rId48" display="http://www.neda.ir/" xr:uid="{1CB16D83-D814-445B-9453-10D54226A5A6}"/>
-    <hyperlink ref="E73" r:id="rId49" display="http://damaneh.ir/" xr:uid="{D3A00297-D3BE-44D6-9B55-8D89EC15957C}"/>
-    <hyperlink ref="E19" r:id="rId50" display="http://hostiran.ir/" xr:uid="{E756F6DA-9476-403F-9285-6371E94E3909}"/>
-    <hyperlink ref="E29" r:id="rId51" display="http://digibarkhat.ir/" xr:uid="{3926762E-5C8C-4326-9F3A-B44F80724952}"/>
-    <hyperlink ref="E30" r:id="rId52" display="http://mynet.ir/" xr:uid="{B83BCD81-4680-4892-BB47-953FC06D13F2}"/>
-    <hyperlink ref="E50" r:id="rId53" display="http://parsdata.ir/" xr:uid="{5B23869E-1282-4A40-9257-8EB66EA46C3A}"/>
-    <hyperlink ref="E5" r:id="rId54" display="http://parspack.ir/" xr:uid="{4E7E63F9-14B6-4C27-AB71-C7157F0D4655}"/>
-    <hyperlink ref="E39" r:id="rId55" display="http://www.bertina.ir/" xr:uid="{A8317657-D204-49D8-AAC1-469C2B67812C}"/>
-    <hyperlink ref="E49" r:id="rId56" display="http://persiantools.ir/" xr:uid="{49CFCF96-03A7-4BD9-A758-DCF284E5099C}"/>
-    <hyperlink ref="E37" r:id="rId57" xr:uid="{9418F2A7-642D-4D3D-BF56-C8FD117E5D5E}"/>
-    <hyperlink ref="E22" r:id="rId58" display="http://pouyasazan.ir/" xr:uid="{65949951-4302-4DA0-ACE7-C7E187F9A68A}"/>
-    <hyperlink ref="E21" r:id="rId59" display="http://talahost.ir/" xr:uid="{EB48832B-02C4-4B9C-921D-EE3D1396F1A0}"/>
-    <hyperlink ref="E13" r:id="rId60" display="http://raadcom.ir/" xr:uid="{6FB2E297-DE78-40AE-903A-4A0FE27F4D5C}"/>
-    <hyperlink ref="E74" r:id="rId61" display="http://domains.ir/" xr:uid="{44DB414F-EBDB-4FBB-931A-5E483BCE6EDD}"/>
-    <hyperlink ref="E31" r:id="rId62" display="http://www.reseller24.ir/" xr:uid="{FE666B60-C95A-4DCF-9009-12BCC613E0C8}"/>
-    <hyperlink ref="E75" r:id="rId63" display="http://domaino.ir/" xr:uid="{69CDFED6-ED1E-485A-BB87-41195BB19888}"/>
-    <hyperlink ref="E76" r:id="rId64" xr:uid="{2871766B-EA96-4074-8900-AA99294A6077}"/>
-    <hyperlink ref="E77" r:id="rId65" display="http://listip.ir/" xr:uid="{B5E630B1-5B2E-4967-9E75-8CA5A78B4A05}"/>
-    <hyperlink ref="E9" r:id="rId66" display="http://domain123.ir/" xr:uid="{EAFF5C2A-5567-4AAA-80FA-B7ABEDE8D0B5}"/>
-    <hyperlink ref="E33" r:id="rId67" display="http://sindad.co.ir/" xr:uid="{1D4D80E0-6D27-4D6D-A17D-A20E459C3EEB}"/>
-    <hyperlink ref="E20" r:id="rId68" display="http://webalfa.ir/" xr:uid="{8C726219-8E75-4EBD-89A0-9521A89FFEB2}"/>
-    <hyperlink ref="E38" r:id="rId69" display="http://server.ir/" xr:uid="{2772F217-9F85-41A7-B49E-6C4F41322129}"/>
-    <hyperlink ref="E52" r:id="rId70" display="http://www.ebnetway.ir/" xr:uid="{DE49B67A-0FB1-4721-AC37-AF35491F0505}"/>
-    <hyperlink ref="E6" r:id="rId71" display="http://hostida.ir/" xr:uid="{F6421A53-5639-46D6-92B3-634ED9196851}"/>
-    <hyperlink ref="E32" r:id="rId72" display="http://ariodata.ir/" xr:uid="{2DF8D1CF-5516-4608-BCA4-B6EAFC6BA7CB}"/>
-    <hyperlink ref="E17" r:id="rId73" display="http://mihannic.ir/" xr:uid="{410A5A61-6B29-4E96-875A-F1F878843F89}"/>
-    <hyperlink ref="E78" r:id="rId74" display="http://registrar.ir/" xr:uid="{3A32D409-B873-4CF5-91E3-222729A23665}"/>
-    <hyperlink ref="E44" r:id="rId75" display="http://hannoverit.ir/" xr:uid="{9D3586AA-7FE3-440A-B9C6-F810A49D5C29}"/>
+    <hyperlink ref="E23" r:id="rId1" xr:uid="{60F6C7EF-8C3D-4BFF-9BBB-2F2C4AC587A6}"/>
+    <hyperlink ref="E27" r:id="rId2" display="http://26666.ir/" xr:uid="{DE9D53E3-95F0-4D9B-B6B2-9352ADA2CD0C}"/>
+    <hyperlink ref="E13" r:id="rId3" display="http://resellernic.ir/" xr:uid="{AFA2B38F-2ECD-4340-AA6D-15E2645BDF9A}"/>
+    <hyperlink ref="E14" r:id="rId4" display="http://karena.ir/" xr:uid="{DE7E1E3E-7F35-45CF-9B5F-555F3705068B}"/>
+    <hyperlink ref="E15" r:id="rId5" display="http://parsianhost.ir/" xr:uid="{57E233EE-D4D6-4F38-AD4A-E1EB18481D80}"/>
+    <hyperlink ref="E29" r:id="rId6" display="http://sabtaddress.ir/" xr:uid="{62DCEF83-9646-4770-932B-B0B4F3E23D62}"/>
+    <hyperlink ref="E2" r:id="rId7" display="http://asanrayaan.ir/" xr:uid="{4B6D7C6B-1F7B-4FB7-87CB-8903298FC133}"/>
+    <hyperlink ref="E3" r:id="rId8" xr:uid="{6E9AB595-7B69-4F24-A573-D85DA685B6CC}"/>
+    <hyperlink ref="E30" r:id="rId9" display="http://azaronline.ir/" xr:uid="{43BC29A5-0E42-4531-AE09-7F4732BE29D1}"/>
+    <hyperlink ref="E31" r:id="rId10" display="http://azaranweb.ir/" xr:uid="{607BC151-E12A-458F-8D5B-BC9F8AAD221A}"/>
+    <hyperlink ref="E32" r:id="rId11" display="http://afradata.ir/" xr:uid="{3C911EA8-BB82-409C-AC81-4FDC2AAC94F1}"/>
+    <hyperlink ref="E33" r:id="rId12" display="http://noornet.ir/" xr:uid="{0F5F0D8C-6DD1-4D75-9A5B-3D811C7A774E}"/>
+    <hyperlink ref="E34" r:id="rId13" display="http://www.idehnic.ir/" xr:uid="{65904291-CEAB-4231-B22A-718FDFFBF80E}"/>
+    <hyperlink ref="E35" r:id="rId14" display="http://www.datamizban.ir/" xr:uid="{0B02D814-F570-4DD9-AF6E-6F5EEE9A1EAF}"/>
+    <hyperlink ref="E36" r:id="rId15" display="http://idehplus.ir/" xr:uid="{EAEF8EA5-DB84-437F-B9EC-D9A79D5B065D}"/>
+    <hyperlink ref="E37" r:id="rId16" display="http://irpowerweb.ir/" xr:uid="{A28B473B-90EF-4877-96CC-DBCDFEF3ECF5}"/>
+    <hyperlink ref="E38" r:id="rId17" display="http://www.day.ir/" xr:uid="{50C095C0-22B2-4C8D-A8C6-4B4CAC1D01EC}"/>
+    <hyperlink ref="E16" r:id="rId18" display="http://diyakoreseller.ir/" xr:uid="{B2156543-5519-4DAD-951D-D3E781C70E04}"/>
+    <hyperlink ref="E17" r:id="rId19" display="http://novinpadideh.ir/" xr:uid="{25D977BA-51E5-4887-A897-484D6C535BA1}"/>
+    <hyperlink ref="E7" r:id="rId20" xr:uid="{95418DD6-641A-438C-A757-0F99BC168A7E}"/>
+    <hyperlink ref="E39" r:id="rId21" display="http://webramz.ir/" xr:uid="{93DDDF5C-C105-4383-9553-2DF3E20DE0FE}"/>
+    <hyperlink ref="E40" r:id="rId22" display="http://niba.ir/" xr:uid="{8AE7F955-3195-4A31-82F3-10EEE842AD31}"/>
+    <hyperlink ref="E41" r:id="rId23" display="http://mihanwebhost.ir/" xr:uid="{77A2A763-FC4E-441C-89AB-89BD6A508209}"/>
+    <hyperlink ref="E18" r:id="rId24" display="http://parhamreg.ir/" xr:uid="{09ADAD7B-C9DB-441A-AC34-789B2C7552BD}"/>
+    <hyperlink ref="E42" r:id="rId25" display="http://www.domainbazan.ir/" xr:uid="{C35B0161-A008-4463-8E7E-2AFC74F3025A}"/>
+    <hyperlink ref="E43" r:id="rId26" display="http://spdomain.ir/" xr:uid="{51950BD9-48B8-431B-8D24-A761E4908C81}"/>
+    <hyperlink ref="E24" r:id="rId27" display="http://sellir.ir/" xr:uid="{EB639299-551D-466E-9CCC-4B2A160FD110}"/>
+    <hyperlink ref="E44" r:id="rId28" display="http://www.faraso.ir/" xr:uid="{5EABF44A-59FA-4C56-916D-0C553CC3EA61}"/>
+    <hyperlink ref="E45" r:id="rId29" display="http://karait.ir/" xr:uid="{1494D3C1-8D6B-4579-9D11-3CA3D6454427}"/>
+    <hyperlink ref="E4" r:id="rId30" display="http://resellha.ir/" xr:uid="{2931D0D2-39A8-421A-AE99-9917321A4D5F}"/>
+    <hyperlink ref="E8" r:id="rId31" display="http://nickname.ir/" xr:uid="{A94D832F-1783-42FC-AEB4-388F6BB7C1EF}"/>
+    <hyperlink ref="E9" r:id="rId32" display="http://greenweb.ir/" xr:uid="{06F2DD3F-EF97-409C-85E9-EA8D1D30F27D}"/>
+    <hyperlink ref="E5" r:id="rId33" display="http://iranhost.ir/" xr:uid="{8AF585C4-0284-414F-9381-8FEE559DC380}"/>
+    <hyperlink ref="E46" r:id="rId34" display="http://jibres.ir/" xr:uid="{D6020873-348A-42CB-A4FA-E32564DEE34B}"/>
+    <hyperlink ref="E47" r:id="rId35" display="http://selva.ir/" xr:uid="{0349AAC3-FE52-4F76-A228-8F7A4A582FE0}"/>
+    <hyperlink ref="E25" r:id="rId36" display="http://basiscore.ir/" xr:uid="{03F0C379-8C93-41F2-BFD6-F0FB750439E9}"/>
+    <hyperlink ref="E48" r:id="rId37" display="http://www.takami.ir/" xr:uid="{3F100193-9340-4BD3-9EDB-DEF890D52088}"/>
+    <hyperlink ref="E49" r:id="rId38" display="http://hostpa.ir/" xr:uid="{7E21348B-648B-419F-8DD3-A24F499A278B}"/>
+    <hyperlink ref="E50" r:id="rId39" display="http://meitsgroup.ir/" xr:uid="{C7715FA2-865B-49D4-A8F2-84E09237B389}"/>
+    <hyperlink ref="E51" r:id="rId40" display="http://mizban.ir/" xr:uid="{394551FD-A1F0-479E-A9C4-01317B54327E}"/>
+    <hyperlink ref="E52" r:id="rId41" display="http://onlineserver.ir/" xr:uid="{627A8E10-EBBA-498D-9530-B623A0886FA3}"/>
+    <hyperlink ref="E53" r:id="rId42" display="http://mibonet.ir/" xr:uid="{25EA0027-A873-492D-AB73-A7C8345096EB}"/>
+    <hyperlink ref="E6" r:id="rId43" display="http://morvahost.ir/" xr:uid="{2B7FFCA6-C6E5-472A-8176-24A27E87CAC4}"/>
+    <hyperlink ref="E10" r:id="rId44" display="http://domainsystem.ir/" xr:uid="{08228125-9E51-48A7-AE9E-90AF7DA24658}"/>
+    <hyperlink ref="E54" r:id="rId45" display="http://webtala.ir/" xr:uid="{C688C0DC-6574-4104-BE8B-48934607B6D9}"/>
+    <hyperlink ref="E55" r:id="rId46" display="http://parsdev.ir/" xr:uid="{EEB067A0-ABD3-494F-B1F8-AB1D2DB9600D}"/>
+    <hyperlink ref="E56" r:id="rId47" display="http://nai.co.ir/" xr:uid="{F49436E2-6125-4A64-A472-B3EE5EDCEC04}"/>
+    <hyperlink ref="E57" r:id="rId48" display="http://www.neda.ir/" xr:uid="{1CB16D83-D814-445B-9453-10D54226A5A6}"/>
+    <hyperlink ref="E11" r:id="rId49" display="http://damaneh.ir/" xr:uid="{D3A00297-D3BE-44D6-9B55-8D89EC15957C}"/>
+    <hyperlink ref="E58" r:id="rId50" display="http://hostiran.ir/" xr:uid="{E756F6DA-9476-403F-9285-6371E94E3909}"/>
+    <hyperlink ref="E59" r:id="rId51" display="http://digibarkhat.ir/" xr:uid="{3926762E-5C8C-4326-9F3A-B44F80724952}"/>
+    <hyperlink ref="E60" r:id="rId52" display="http://mynet.ir/" xr:uid="{B83BCD81-4680-4892-BB47-953FC06D13F2}"/>
+    <hyperlink ref="E61" r:id="rId53" display="http://parsdata.ir/" xr:uid="{5B23869E-1282-4A40-9257-8EB66EA46C3A}"/>
+    <hyperlink ref="E62" r:id="rId54" display="http://parspack.ir/" xr:uid="{4E7E63F9-14B6-4C27-AB71-C7157F0D4655}"/>
+    <hyperlink ref="E63" r:id="rId55" display="http://www.bertina.ir/" xr:uid="{A8317657-D204-49D8-AAC1-469C2B67812C}"/>
+    <hyperlink ref="E64" r:id="rId56" display="http://persiantools.ir/" xr:uid="{49CFCF96-03A7-4BD9-A758-DCF284E5099C}"/>
+    <hyperlink ref="E65" r:id="rId57" xr:uid="{9418F2A7-642D-4D3D-BF56-C8FD117E5D5E}"/>
+    <hyperlink ref="E66" r:id="rId58" display="http://pouyasazan.ir/" xr:uid="{65949951-4302-4DA0-ACE7-C7E187F9A68A}"/>
+    <hyperlink ref="E67" r:id="rId59" display="http://talahost.ir/" xr:uid="{EB48832B-02C4-4B9C-921D-EE3D1396F1A0}"/>
+    <hyperlink ref="E68" r:id="rId60" display="http://raadcom.ir/" xr:uid="{6FB2E297-DE78-40AE-903A-4A0FE27F4D5C}"/>
+    <hyperlink ref="E20" r:id="rId61" display="http://domains.ir/" xr:uid="{44DB414F-EBDB-4FBB-931A-5E483BCE6EDD}"/>
+    <hyperlink ref="E69" r:id="rId62" display="http://www.reseller24.ir/" xr:uid="{FE666B60-C95A-4DCF-9009-12BCC613E0C8}"/>
+    <hyperlink ref="E12" r:id="rId63" display="http://domaino.ir/" xr:uid="{69CDFED6-ED1E-485A-BB87-41195BB19888}"/>
+    <hyperlink ref="E21" r:id="rId64" xr:uid="{2871766B-EA96-4074-8900-AA99294A6077}"/>
+    <hyperlink ref="E22" r:id="rId65" display="http://listip.ir/" xr:uid="{B5E630B1-5B2E-4967-9E75-8CA5A78B4A05}"/>
+    <hyperlink ref="E70" r:id="rId66" display="http://domain123.ir/" xr:uid="{EAFF5C2A-5567-4AAA-80FA-B7ABEDE8D0B5}"/>
+    <hyperlink ref="E71" r:id="rId67" display="http://sindad.co.ir/" xr:uid="{1D4D80E0-6D27-4D6D-A17D-A20E459C3EEB}"/>
+    <hyperlink ref="E72" r:id="rId68" display="http://webalfa.ir/" xr:uid="{8C726219-8E75-4EBD-89A0-9521A89FFEB2}"/>
+    <hyperlink ref="E73" r:id="rId69" display="http://server.ir/" xr:uid="{2772F217-9F85-41A7-B49E-6C4F41322129}"/>
+    <hyperlink ref="E74" r:id="rId70" display="http://www.ebnetway.ir/" xr:uid="{DE49B67A-0FB1-4721-AC37-AF35491F0505}"/>
+    <hyperlink ref="E75" r:id="rId71" display="http://hostida.ir/" xr:uid="{F6421A53-5639-46D6-92B3-634ED9196851}"/>
+    <hyperlink ref="E76" r:id="rId72" display="http://ariodata.ir/" xr:uid="{2DF8D1CF-5516-4608-BCA4-B6EAFC6BA7CB}"/>
+    <hyperlink ref="E77" r:id="rId73" display="http://mihannic.ir/" xr:uid="{410A5A61-6B29-4E96-875A-F1F878843F89}"/>
+    <hyperlink ref="E26" r:id="rId74" display="http://registrar.ir/" xr:uid="{3A32D409-B873-4CF5-91E3-222729A23665}"/>
+    <hyperlink ref="E78" r:id="rId75" display="http://hannoverit.ir/" xr:uid="{9D3586AA-7FE3-440A-B9C6-F810A49D5C29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
@@ -8984,19 +9150,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{922FC569-2105-4F7A-B259-D2428B6A2B22}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G41:G78</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5AC794AF-717B-4AEB-B2CA-DE7C19A0AD48}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -9007,7 +9160,72 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G40</xm:sqref>
+          <xm:sqref>G2:G26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BB907BF6-AB92-4F15-8079-1868AD617E3B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G65:G78</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BEE0C352-C6C5-4188-BACF-8B0932E9114A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G50:G64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A4C19004-808A-47C3-8BFE-8EF6FB118EE3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G41:G49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{937F457E-84F8-413B-8F46-BDE668427807}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G34:G40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C12426AF-35E9-497E-B0A7-653C3CD3CB65}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G27:G33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
